--- a/2des/projetos/pregoes/docs/bd/dados.xlsx
+++ b/2des/projetos/pregoes/docs/bd/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\projetos\pregoes\docs\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\projetos\pregoes\docs\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED08723-C559-4137-9BB6-3A626A3FF2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34CEBF-DB9E-46EC-A28D-7B5D540B023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D18E481-EE5A-4EFC-857A-A4BC42B81EC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D18E481-EE5A-4EFC-857A-A4BC42B81EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="pregoes" sheetId="4" r:id="rId3"/>
     <sheet name="objetos" sheetId="3" r:id="rId4"/>
     <sheet name="ofertas" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2124,10 +2128,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2445,12 +2448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B37DBA4-247E-4FB4-A355-0308A335B438}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -4186,9 +4188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01A139F-FDF4-4886-A4C5-68E84866931E}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6317,7 +6317,7 @@
       <c r="B89">
         <v>202221</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>192</v>
       </c>
       <c r="D89" t="s">
@@ -6391,9 +6391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEB6696-725C-489E-AC21-0B7AEFFFAEB9}">
   <dimension ref="A1:F355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6432,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>203</v>
@@ -6442,7 +6440,7 @@
       </c>
       <c r="F2" t="str">
         <f>"("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;"),"</f>
-        <v>(1,11,date_sub(curdate(), INTERVAL 227 DAY),36.4),</v>
+        <v>(1,12,date_sub(curdate(), INTERVAL 227 DAY),36.4),</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6453,17 +6451,17 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" t="s">
-        <v>371</v>
+        <v>205</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">"("&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;"),"</f>
-        <v>(1,16,date_sub(curdate(), INTERVAL 236 DAY),40.1),</v>
+        <f>"("&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;"),"</f>
+        <v>(1,17,date_sub(curdate(), INTERVAL 230 DAY),50),</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6474,17 +6472,17 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>205</v>
       </c>
-      <c r="E4">
-        <v>50</v>
+      <c r="E4" t="s">
+        <v>372</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>(1,17,date_sub(curdate(), INTERVAL 230 DAY),50),</v>
+        <f>"("&amp;B4&amp;","&amp;C4&amp;","&amp;D4&amp;","&amp;E4&amp;"),"</f>
+        <v>(1,18,date_sub(curdate(), INTERVAL 230 DAY),35.6),</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6495,17 +6493,17 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>(1,11,date_sub(curdate(), INTERVAL 230 DAY),35.6),</v>
+        <f>"("&amp;B5&amp;","&amp;C5&amp;","&amp;D5&amp;","&amp;E5&amp;"),"</f>
+        <v>(1,15,date_sub(curdate(), INTERVAL 236 DAY),40.1),</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6516,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>206</v>
@@ -6525,8 +6523,8 @@
         <v>373</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>(2,11,date_sub(curdate(), INTERVAL 226 DAY),1264.1),</v>
+        <f>"("&amp;B6&amp;","&amp;C6&amp;","&amp;D6&amp;","&amp;E6&amp;"),"</f>
+        <v>(2,12,date_sub(curdate(), INTERVAL 226 DAY),1264.1),</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6537,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>207</v>
@@ -6546,8 +6544,8 @@
         <v>374</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2,14,date_sub(curdate(), INTERVAL 229 DAY),1100.3),</v>
+        <f>"("&amp;B7&amp;","&amp;C7&amp;","&amp;D7&amp;","&amp;E7&amp;"),"</f>
+        <v>(2,15,date_sub(curdate(), INTERVAL 229 DAY),1100.3),</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>207</v>
@@ -6567,8 +6565,8 @@
         <v>375</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>(2,16,date_sub(curdate(), INTERVAL 229 DAY),1201.7),</v>
+        <f>"("&amp;B8&amp;","&amp;C8&amp;","&amp;D8&amp;","&amp;E8&amp;"),"</f>
+        <v>(2,17,date_sub(curdate(), INTERVAL 229 DAY),1201.7),</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6579,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>207</v>
@@ -6588,8 +6586,8 @@
         <v>376</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>(2,17,date_sub(curdate(), INTERVAL 229 DAY),1477.3),</v>
+        <f>"("&amp;B9&amp;","&amp;C9&amp;","&amp;D9&amp;","&amp;E9&amp;"),"</f>
+        <v>(2,18,date_sub(curdate(), INTERVAL 229 DAY),1477.3),</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6600,7 +6598,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>208</v>
@@ -6609,8 +6607,8 @@
         <v>377</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,14,date_sub(curdate(), INTERVAL 233 DAY),1126.9),</v>
+        <f>"("&amp;B10&amp;","&amp;C10&amp;","&amp;D10&amp;","&amp;E10&amp;"),"</f>
+        <v>(3,11,date_sub(curdate(), INTERVAL 233 DAY),1126.9),</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6621,17 +6619,17 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11">
-        <v>1335</v>
+        <v>208</v>
+      </c>
+      <c r="E11" t="s">
+        <v>378</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,16,date_sub(curdate(), INTERVAL 237 DAY),1335),</v>
+        <f>"("&amp;B11&amp;","&amp;C11&amp;","&amp;D11&amp;","&amp;E11&amp;"),"</f>
+        <v>(3,15,date_sub(curdate(), INTERVAL 233 DAY),1059.3),</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6645,14 +6643,14 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,17,date_sub(curdate(), INTERVAL 233 DAY),1059.3),</v>
+        <f>"("&amp;B12&amp;","&amp;C12&amp;","&amp;D12&amp;","&amp;E12&amp;"),"</f>
+        <v>(3,17,date_sub(curdate(), INTERVAL 235 DAY),1106.3),</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,17 +6661,17 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" t="s">
-        <v>379</v>
+        <v>209</v>
+      </c>
+      <c r="E13">
+        <v>1335</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,14,date_sub(curdate(), INTERVAL 235 DAY),1106.3),</v>
+        <f>"("&amp;B13&amp;","&amp;C13&amp;","&amp;D13&amp;","&amp;E13&amp;"),"</f>
+        <v>(3,12,date_sub(curdate(), INTERVAL 237 DAY),1335),</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6684,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>207</v>
@@ -6693,8 +6691,8 @@
         <v>380</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,16,date_sub(curdate(), INTERVAL 229 DAY),1403.7),</v>
+        <f>"("&amp;B14&amp;","&amp;C14&amp;","&amp;D14&amp;","&amp;E14&amp;"),"</f>
+        <v>(4,18,date_sub(curdate(), INTERVAL 229 DAY),1403.7),</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6705,7 +6703,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>207</v>
@@ -6714,8 +6712,8 @@
         <v>381</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,17,date_sub(curdate(), INTERVAL 229 DAY),1413.6),</v>
+        <f>"("&amp;B15&amp;","&amp;C15&amp;","&amp;D15&amp;","&amp;E15&amp;"),"</f>
+        <v>(4,11,date_sub(curdate(), INTERVAL 229 DAY),1413.6),</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6726,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>211</v>
@@ -6735,8 +6733,8 @@
         <v>382</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,14,date_sub(curdate(), INTERVAL 234 DAY),1574.4),</v>
+        <f>"("&amp;B16&amp;","&amp;C16&amp;","&amp;D16&amp;","&amp;E16&amp;"),"</f>
+        <v>(4,12,date_sub(curdate(), INTERVAL 234 DAY),1574.4),</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6747,7 +6745,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>212</v>
@@ -6756,8 +6754,8 @@
         <v>383</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,16,date_sub(curdate(), INTERVAL 238 DAY),1651.6),</v>
+        <f>"("&amp;B17&amp;","&amp;C17&amp;","&amp;D17&amp;","&amp;E17&amp;"),"</f>
+        <v>(4,15,date_sub(curdate(), INTERVAL 238 DAY),1651.6),</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6768,17 +6766,17 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,14,date_sub(curdate(), INTERVAL 217 DAY),195.8),</v>
+        <f>"("&amp;B18&amp;","&amp;C18&amp;","&amp;D18&amp;","&amp;E18&amp;"),"</f>
+        <v>(5,11,date_sub(curdate(), INTERVAL 216 DAY),172.1),</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6789,17 +6787,17 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,15,date_sub(curdate(), INTERVAL 221 DAY),184.7),</v>
+        <f>"("&amp;B19&amp;","&amp;C19&amp;","&amp;D19&amp;","&amp;E19&amp;"),"</f>
+        <v>(5,11,date_sub(curdate(), INTERVAL 217 DAY),195.8),</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6810,17 +6808,17 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,18,date_sub(curdate(), INTERVAL 227 DAY),181.6),</v>
+        <f>"("&amp;B20&amp;","&amp;C20&amp;","&amp;D20&amp;","&amp;E20&amp;"),"</f>
+        <v>(5,16,date_sub(curdate(), INTERVAL 221 DAY),184.7),</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6831,17 +6829,17 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,14,date_sub(curdate(), INTERVAL 216 DAY),172.1),</v>
+        <f>"("&amp;B21&amp;","&amp;C21&amp;","&amp;D21&amp;","&amp;E21&amp;"),"</f>
+        <v>(5,19,date_sub(curdate(), INTERVAL 227 DAY),181.6),</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6852,17 +6850,17 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,17,date_sub(curdate(), INTERVAL 229 DAY),1127.3),</v>
+        <f>"("&amp;B22&amp;","&amp;C22&amp;","&amp;D22&amp;","&amp;E22&amp;"),"</f>
+        <v>(6,18,date_sub(curdate(), INTERVAL 219 DAY),1240.6),</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6873,17 +6871,17 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,14,date_sub(curdate(), INTERVAL 219 DAY),1240.6),</v>
+        <f>"("&amp;B23&amp;","&amp;C23&amp;","&amp;D23&amp;","&amp;E23&amp;"),"</f>
+        <v>(6,11,date_sub(curdate(), INTERVAL 224 DAY),1585.2),</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,17 +6892,17 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>217</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,16,date_sub(curdate(), INTERVAL 224 DAY),1585.2),</v>
+        <f>"("&amp;B24&amp;","&amp;C24&amp;","&amp;D24&amp;","&amp;E24&amp;"),"</f>
+        <v>(6,12,date_sub(curdate(), INTERVAL 224 DAY),1510.2),</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6918,14 +6916,14 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,17,date_sub(curdate(), INTERVAL 224 DAY),1510.2),</v>
+        <f>"("&amp;B25&amp;","&amp;C25&amp;","&amp;D25&amp;","&amp;E25&amp;"),"</f>
+        <v>(6,17,date_sub(curdate(), INTERVAL 229 DAY),1127.3),</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6936,17 +6934,17 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>(7,11,date_sub(curdate(), INTERVAL 219 DAY),75.6),</v>
+        <f>"("&amp;B26&amp;","&amp;C26&amp;","&amp;D26&amp;","&amp;E26&amp;"),"</f>
+        <v>(7,17,date_sub(curdate(), INTERVAL 216 DAY),74.6),</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6957,17 +6955,17 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>(7,16,date_sub(curdate(), INTERVAL 219 DAY),83.4),</v>
+        <f>"("&amp;B27&amp;","&amp;C27&amp;","&amp;D27&amp;","&amp;E27&amp;"),"</f>
+        <v>(7,18,date_sub(curdate(), INTERVAL 217 DAY),84.4),</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6978,17 +6976,17 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>(7,17,date_sub(curdate(), INTERVAL 216 DAY),74.6),</v>
+        <f>"("&amp;B28&amp;","&amp;C28&amp;","&amp;D28&amp;","&amp;E28&amp;"),"</f>
+        <v>(7,12,date_sub(curdate(), INTERVAL 219 DAY),75.6),</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,17 +6997,17 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>(7,11,date_sub(curdate(), INTERVAL 217 DAY),84.4),</v>
+        <f>"("&amp;B29&amp;","&amp;C29&amp;","&amp;D29&amp;","&amp;E29&amp;"),"</f>
+        <v>(7,15,date_sub(curdate(), INTERVAL 219 DAY),83.4),</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7020,17 +7018,17 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,10,date_sub(curdate(), INTERVAL 228 DAY),36.7),</v>
+        <f>"("&amp;B30&amp;","&amp;C30&amp;","&amp;D30&amp;","&amp;E30&amp;"),"</f>
+        <v>(8,15,date_sub(curdate(), INTERVAL 219 DAY),39.4),</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7041,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>219</v>
@@ -7050,8 +7048,8 @@
         <v>397</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,14,date_sub(curdate(), INTERVAL 222 DAY),45.5),</v>
+        <f>"("&amp;B31&amp;","&amp;C31&amp;","&amp;D31&amp;","&amp;E31&amp;"),"</f>
+        <v>(8,12,date_sub(curdate(), INTERVAL 222 DAY),45.5),</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7062,17 +7060,17 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" t="s">
-        <v>398</v>
+        <v>206</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,16,date_sub(curdate(), INTERVAL 219 DAY),39.4),</v>
+        <f>"("&amp;B32&amp;","&amp;C32&amp;","&amp;D32&amp;","&amp;E32&amp;"),"</f>
+        <v>(8,17,date_sub(curdate(), INTERVAL 226 DAY),47),</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7083,17 +7081,17 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33">
-        <v>47</v>
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>396</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,17,date_sub(curdate(), INTERVAL 226 DAY),47),</v>
+        <f>"("&amp;B33&amp;","&amp;C33&amp;","&amp;D33&amp;","&amp;E33&amp;"),"</f>
+        <v>(8,11,date_sub(curdate(), INTERVAL 228 DAY),36.7),</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7104,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>213</v>
@@ -7113,8 +7111,8 @@
         <v>399</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>(9,4,date_sub(curdate(), INTERVAL 217 DAY),5.5),</v>
+        <f>"("&amp;B34&amp;","&amp;C34&amp;","&amp;D34&amp;","&amp;E34&amp;"),"</f>
+        <v>(9,5,date_sub(curdate(), INTERVAL 217 DAY),5.5),</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7125,17 +7123,17 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>(9,5,date_sub(curdate(), INTERVAL 226 DAY),6.6),</v>
+        <f>"("&amp;B35&amp;","&amp;C35&amp;","&amp;D35&amp;","&amp;E35&amp;"),"</f>
+        <v>(9,11,date_sub(curdate(), INTERVAL 218 DAY),5.9),</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7146,17 +7144,17 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>(9,17,date_sub(curdate(), INTERVAL 218 DAY),5.9),</v>
+        <f>"("&amp;B36&amp;","&amp;C36&amp;","&amp;D36&amp;","&amp;E36&amp;"),"</f>
+        <v>(9,5,date_sub(curdate(), INTERVAL 225 DAY),6.4),</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7167,17 +7165,17 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>(9,4,date_sub(curdate(), INTERVAL 225 DAY),6.4),</v>
+        <f>"("&amp;B37&amp;","&amp;C37&amp;","&amp;D37&amp;","&amp;E37&amp;"),"</f>
+        <v>(9,6,date_sub(curdate(), INTERVAL 226 DAY),6.6),</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7188,17 +7186,17 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38">
-        <v>17</v>
+        <v>224</v>
+      </c>
+      <c r="E38" t="s">
+        <v>404</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,14,date_sub(curdate(), INTERVAL 214 DAY),17),</v>
+        <f>"("&amp;B38&amp;","&amp;C38&amp;","&amp;D38&amp;","&amp;E38&amp;"),"</f>
+        <v>(10,18,date_sub(curdate(), INTERVAL 208 DAY),14.8),</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,17 +7207,17 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" t="s">
-        <v>403</v>
+        <v>222</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,16,date_sub(curdate(), INTERVAL 220 DAY),15.4),</v>
+        <f>"("&amp;B39&amp;","&amp;C39&amp;","&amp;D39&amp;","&amp;E39&amp;"),"</f>
+        <v>(10,15,date_sub(curdate(), INTERVAL 214 DAY),17),</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7233,14 +7231,14 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,17,date_sub(curdate(), INTERVAL 208 DAY),14.8),</v>
+        <f>"("&amp;B40&amp;","&amp;C40&amp;","&amp;D40&amp;","&amp;E40&amp;"),"</f>
+        <v>(10,17,date_sub(curdate(), INTERVAL 220 DAY),15.4),</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7251,7 +7249,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
         <v>223</v>
@@ -7260,8 +7258,8 @@
         <v>405</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,14,date_sub(curdate(), INTERVAL 220 DAY),14.3),</v>
+        <f>"("&amp;B41&amp;","&amp;C41&amp;","&amp;D41&amp;","&amp;E41&amp;"),"</f>
+        <v>(10,11,date_sub(curdate(), INTERVAL 220 DAY),14.3),</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7272,17 +7270,17 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>(11,11,date_sub(curdate(), INTERVAL 217 DAY),643.4),</v>
+        <f>"("&amp;B42&amp;","&amp;C42&amp;","&amp;D42&amp;","&amp;E42&amp;"),"</f>
+        <v>(11,15,date_sub(curdate(), INTERVAL 209 DAY),632.8),</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,17 +7291,17 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>(11,14,date_sub(curdate(), INTERVAL 209 DAY),632.8),</v>
+        <f>"("&amp;B43&amp;","&amp;C43&amp;","&amp;D43&amp;","&amp;E43&amp;"),"</f>
+        <v>(11,18,date_sub(curdate(), INTERVAL 210 DAY),712.4),</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7314,7 +7312,7 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>215</v>
@@ -7323,8 +7321,8 @@
         <v>408</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>(11,16,date_sub(curdate(), INTERVAL 216 DAY),547.7),</v>
+        <f>"("&amp;B44&amp;","&amp;C44&amp;","&amp;D44&amp;","&amp;E44&amp;"),"</f>
+        <v>(11,17,date_sub(curdate(), INTERVAL 216 DAY),547.7),</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7335,17 +7333,17 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>(11,17,date_sub(curdate(), INTERVAL 210 DAY),712.4),</v>
+        <f>"("&amp;B45&amp;","&amp;C45&amp;","&amp;D45&amp;","&amp;E45&amp;"),"</f>
+        <v>(11,12,date_sub(curdate(), INTERVAL 217 DAY),643.4),</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7356,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>227</v>
@@ -7365,8 +7363,8 @@
         <v>410</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>(12,10,date_sub(curdate(), INTERVAL 207 DAY),76.3),</v>
+        <f>"("&amp;B46&amp;","&amp;C46&amp;","&amp;D46&amp;","&amp;E46&amp;"),"</f>
+        <v>(12,18,date_sub(curdate(), INTERVAL 207 DAY),76.3),</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7377,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>228</v>
@@ -7386,8 +7384,8 @@
         <v>75</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>(12,14,date_sub(curdate(), INTERVAL 215 DAY),75),</v>
+        <f>"("&amp;B47&amp;","&amp;C47&amp;","&amp;D47&amp;","&amp;E47&amp;"),"</f>
+        <v>(12,11,date_sub(curdate(), INTERVAL 215 DAY),75),</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7398,7 +7396,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
         <v>228</v>
@@ -7407,8 +7405,8 @@
         <v>411</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>(12,16,date_sub(curdate(), INTERVAL 215 DAY),76.5),</v>
+        <f>"("&amp;B48&amp;","&amp;C48&amp;","&amp;D48&amp;","&amp;E48&amp;"),"</f>
+        <v>(12,12,date_sub(curdate(), INTERVAL 215 DAY),76.5),</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
         <v>215</v>
@@ -7428,8 +7426,8 @@
         <v>412</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>(12,17,date_sub(curdate(), INTERVAL 216 DAY),94.9),</v>
+        <f>"("&amp;B49&amp;","&amp;C49&amp;","&amp;D49&amp;","&amp;E49&amp;"),"</f>
+        <v>(12,15,date_sub(curdate(), INTERVAL 216 DAY),94.9),</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7440,17 +7438,17 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,11,date_sub(curdate(), INTERVAL 213 DAY),116.2),</v>
+        <f>"("&amp;B50&amp;","&amp;C50&amp;","&amp;D50&amp;","&amp;E50&amp;"),"</f>
+        <v>(13,12,date_sub(curdate(), INTERVAL 211 DAY),88.3),</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7461,17 +7459,17 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,16,date_sub(curdate(), INTERVAL 211 DAY),88.3),</v>
+        <f>"("&amp;B51&amp;","&amp;C51&amp;","&amp;D51&amp;","&amp;E51&amp;"),"</f>
+        <v>(13,15,date_sub(curdate(), INTERVAL 211 DAY),114.8),</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,14 +7483,14 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,17,date_sub(curdate(), INTERVAL 211 DAY),114.8),</v>
+        <f>"("&amp;B52&amp;","&amp;C52&amp;","&amp;D52&amp;","&amp;E52&amp;"),"</f>
+        <v>(13,17,date_sub(curdate(), INTERVAL 212 DAY),94.9),</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7506,14 +7504,14 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,11,date_sub(curdate(), INTERVAL 212 DAY),94.9),</v>
+        <f>"("&amp;B53&amp;","&amp;C53&amp;","&amp;D53&amp;","&amp;E53&amp;"),"</f>
+        <v>(13,11,date_sub(curdate(), INTERVAL 213 DAY),116.2),</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,17 +7522,17 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,15,date_sub(curdate(), INTERVAL 216 DAY),141.4),</v>
+        <f>"("&amp;B54&amp;","&amp;C54&amp;","&amp;D54&amp;","&amp;E54&amp;"),"</f>
+        <v>(14,16,date_sub(curdate(), INTERVAL 210 DAY),160.6),</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7545,17 +7543,17 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,18,date_sub(curdate(), INTERVAL 215 DAY),194.7),</v>
+        <f>"("&amp;B55&amp;","&amp;C55&amp;","&amp;D55&amp;","&amp;E55&amp;"),"</f>
+        <v>(14,11,date_sub(curdate(), INTERVAL 214 DAY),185.3),</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7566,17 +7564,17 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,14,date_sub(curdate(), INTERVAL 214 DAY),185.3),</v>
+        <f>"("&amp;B56&amp;","&amp;C56&amp;","&amp;D56&amp;","&amp;E56&amp;"),"</f>
+        <v>(14,19,date_sub(curdate(), INTERVAL 215 DAY),194.7),</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,17 +7585,17 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,15,date_sub(curdate(), INTERVAL 210 DAY),160.6),</v>
+        <f>"("&amp;B57&amp;","&amp;C57&amp;","&amp;D57&amp;","&amp;E57&amp;"),"</f>
+        <v>(14,16,date_sub(curdate(), INTERVAL 216 DAY),141.4),</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7617,7 +7615,7 @@
         <v>711</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
+        <f>"("&amp;B58&amp;","&amp;C58&amp;","&amp;D58&amp;","&amp;E58&amp;"),"</f>
         <v>(15,11,date_sub(curdate(), INTERVAL 189 DAY),711),</v>
       </c>
     </row>
@@ -7629,7 +7627,7 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
         <v>233</v>
@@ -7638,8 +7636,8 @@
         <v>420</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>(15,16,date_sub(curdate(), INTERVAL 191 DAY),754.2),</v>
+        <f>"("&amp;B59&amp;","&amp;C59&amp;","&amp;D59&amp;","&amp;E59&amp;"),"</f>
+        <v>(15,12,date_sub(curdate(), INTERVAL 191 DAY),754.2),</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7650,7 +7648,7 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>234</v>
@@ -7659,8 +7657,8 @@
         <v>421</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>(15,17,date_sub(curdate(), INTERVAL 197 DAY),785.4),</v>
+        <f>"("&amp;B60&amp;","&amp;C60&amp;","&amp;D60&amp;","&amp;E60&amp;"),"</f>
+        <v>(15,15,date_sub(curdate(), INTERVAL 197 DAY),785.4),</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7671,7 +7669,7 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
         <v>235</v>
@@ -7680,8 +7678,8 @@
         <v>422</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>(15,11,date_sub(curdate(), INTERVAL 199 DAY),810.7),</v>
+        <f>"("&amp;B61&amp;","&amp;C61&amp;","&amp;D61&amp;","&amp;E61&amp;"),"</f>
+        <v>(15,17,date_sub(curdate(), INTERVAL 199 DAY),810.7),</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7692,17 +7690,17 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>(16,16,date_sub(curdate(), INTERVAL 200 DAY),495.8),</v>
+        <f>"("&amp;B62&amp;","&amp;C62&amp;","&amp;D62&amp;","&amp;E62&amp;"),"</f>
+        <v>(16,15,date_sub(curdate(), INTERVAL 194 DAY),460.5),</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7713,17 +7711,17 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>(16,17,date_sub(curdate(), INTERVAL 194 DAY),460.5),</v>
+        <f>"("&amp;B63&amp;","&amp;C63&amp;","&amp;D63&amp;","&amp;E63&amp;"),"</f>
+        <v>(16,18,date_sub(curdate(), INTERVAL 195 DAY),452.4),</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7734,7 +7732,7 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
         <v>238</v>
@@ -7743,8 +7741,8 @@
         <v>425</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>(16,14,date_sub(curdate(), INTERVAL 198 DAY),367.3),</v>
+        <f>"("&amp;B64&amp;","&amp;C64&amp;","&amp;D64&amp;","&amp;E64&amp;"),"</f>
+        <v>(16,17,date_sub(curdate(), INTERVAL 198 DAY),367.3),</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7755,17 +7753,17 @@
         <v>16</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>(16,16,date_sub(curdate(), INTERVAL 195 DAY),452.4),</v>
+        <f>"("&amp;B65&amp;","&amp;C65&amp;","&amp;D65&amp;","&amp;E65&amp;"),"</f>
+        <v>(16,12,date_sub(curdate(), INTERVAL 200 DAY),495.8),</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7776,17 +7774,17 @@
         <v>17</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66">
-        <v>151</v>
+        <v>232</v>
+      </c>
+      <c r="E66" t="s">
+        <v>428</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>(17,18,date_sub(curdate(), INTERVAL 201 DAY),151),</v>
+        <f>"("&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;","&amp;E66&amp;"),"</f>
+        <v>(17,19,date_sub(curdate(), INTERVAL 189 DAY),158.7),</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -7797,17 +7795,17 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
-      </c>
-      <c r="E67" t="s">
-        <v>427</v>
+        <v>241</v>
+      </c>
+      <c r="E67">
+        <v>140</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="1">"("&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;","&amp;E67&amp;"),"</f>
-        <v>(17,14,date_sub(curdate(), INTERVAL 200 DAY),179.4),</v>
+        <f>"("&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;","&amp;E67&amp;"),"</f>
+        <v>(17,16,date_sub(curdate(), INTERVAL 192 DAY),140),</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -7818,17 +7816,17 @@
         <v>17</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68">
-        <v>140</v>
+        <v>236</v>
+      </c>
+      <c r="E68" t="s">
+        <v>427</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="1"/>
-        <v>(17,15,date_sub(curdate(), INTERVAL 192 DAY),140),</v>
+        <f>"("&amp;B68&amp;","&amp;C68&amp;","&amp;D68&amp;","&amp;E68&amp;"),"</f>
+        <v>(17,11,date_sub(curdate(), INTERVAL 200 DAY),179.4),</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,17 +7837,17 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
-      </c>
-      <c r="E69" t="s">
-        <v>428</v>
+        <v>240</v>
+      </c>
+      <c r="E69">
+        <v>151</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="1"/>
-        <v>(17,18,date_sub(curdate(), INTERVAL 189 DAY),158.7),</v>
+        <f>"("&amp;B69&amp;","&amp;C69&amp;","&amp;D69&amp;","&amp;E69&amp;"),"</f>
+        <v>(17,19,date_sub(curdate(), INTERVAL 201 DAY),151),</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7860,17 +7858,17 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="1"/>
-        <v>(18,6,date_sub(curdate(), INTERVAL 195 DAY),47023.5),</v>
+        <f>"("&amp;B70&amp;","&amp;C70&amp;","&amp;D70&amp;","&amp;E70&amp;"),"</f>
+        <v>(18,7,date_sub(curdate(), INTERVAL 192 DAY),42613.6),</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7881,17 +7879,17 @@
         <v>18</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="1"/>
-        <v>(18,7,date_sub(curdate(), INTERVAL 192 DAY),42613.6),</v>
+        <f>"("&amp;B71&amp;","&amp;C71&amp;","&amp;D71&amp;","&amp;E71&amp;"),"</f>
+        <v>(18,4,date_sub(curdate(), INTERVAL 195 DAY),47023.5),</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7902,7 +7900,7 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>234</v>
@@ -7911,8 +7909,8 @@
         <v>431</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="1"/>
-        <v>(18,16,date_sub(curdate(), INTERVAL 197 DAY),40752.2),</v>
+        <f>"("&amp;B72&amp;","&amp;C72&amp;","&amp;D72&amp;","&amp;E72&amp;"),"</f>
+        <v>(18,8,date_sub(curdate(), INTERVAL 197 DAY),40752.2),</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7923,7 +7921,7 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
         <v>238</v>
@@ -7932,8 +7930,8 @@
         <v>432</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="1"/>
-        <v>(18,17,date_sub(curdate(), INTERVAL 198 DAY),35852.4),</v>
+        <f>"("&amp;B73&amp;","&amp;C73&amp;","&amp;D73&amp;","&amp;E73&amp;"),"</f>
+        <v>(18,4,date_sub(curdate(), INTERVAL 198 DAY),35852.4),</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,7 +7942,7 @@
         <v>19</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>234</v>
@@ -7953,8 +7951,8 @@
         <v>433</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="1"/>
-        <v>(19,14,date_sub(curdate(), INTERVAL 197 DAY),192.9),</v>
+        <f>"("&amp;B74&amp;","&amp;C74&amp;","&amp;D74&amp;","&amp;E74&amp;"),"</f>
+        <v>(19,11,date_sub(curdate(), INTERVAL 197 DAY),192.9),</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7965,17 +7963,17 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E75" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="1"/>
-        <v>(19,15,date_sub(curdate(), INTERVAL 202 DAY),154.1),</v>
+        <f>"("&amp;B75&amp;","&amp;C75&amp;","&amp;D75&amp;","&amp;E75&amp;"),"</f>
+        <v>(19,11,date_sub(curdate(), INTERVAL 199 DAY),196.6),</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7986,7 +7984,7 @@
         <v>19</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
         <v>236</v>
@@ -7995,8 +7993,8 @@
         <v>435</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="1"/>
-        <v>(19,18,date_sub(curdate(), INTERVAL 200 DAY),140.6),</v>
+        <f>"("&amp;B76&amp;","&amp;C76&amp;","&amp;D76&amp;","&amp;E76&amp;"),"</f>
+        <v>(19,19,date_sub(curdate(), INTERVAL 200 DAY),140.6),</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -8007,17 +8005,17 @@
         <v>19</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E77" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="1"/>
-        <v>(19,14,date_sub(curdate(), INTERVAL 199 DAY),196.6),</v>
+        <f>"("&amp;B77&amp;","&amp;C77&amp;","&amp;D77&amp;","&amp;E77&amp;"),"</f>
+        <v>(19,16,date_sub(curdate(), INTERVAL 202 DAY),154.1),</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -8028,17 +8026,17 @@
         <v>20</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="1"/>
-        <v>(20,15,date_sub(curdate(), INTERVAL 187 DAY),168.6),</v>
+        <f>"("&amp;B78&amp;","&amp;C78&amp;","&amp;D78&amp;","&amp;E78&amp;"),"</f>
+        <v>(20,11,date_sub(curdate(), INTERVAL 178 DAY),197.1),</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -8049,7 +8047,7 @@
         <v>20</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>244</v>
@@ -8058,8 +8056,8 @@
         <v>438</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="1"/>
-        <v>(20,18,date_sub(curdate(), INTERVAL 184 DAY),157.4),</v>
+        <f>"("&amp;B79&amp;","&amp;C79&amp;","&amp;D79&amp;","&amp;E79&amp;"),"</f>
+        <v>(20,19,date_sub(curdate(), INTERVAL 184 DAY),157.4),</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -8070,17 +8068,17 @@
         <v>20</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="1"/>
-        <v>(20,14,date_sub(curdate(), INTERVAL 178 DAY),197.1),</v>
+        <f>"("&amp;B80&amp;","&amp;C80&amp;","&amp;D80&amp;","&amp;E80&amp;"),"</f>
+        <v>(20,16,date_sub(curdate(), INTERVAL 187 DAY),168.6),</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -8091,7 +8089,7 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
         <v>233</v>
@@ -8100,8 +8098,8 @@
         <v>440</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="1"/>
-        <v>(20,15,date_sub(curdate(), INTERVAL 191 DAY),192.5),</v>
+        <f>"("&amp;B81&amp;","&amp;C81&amp;","&amp;D81&amp;","&amp;E81&amp;"),"</f>
+        <v>(20,16,date_sub(curdate(), INTERVAL 191 DAY),192.5),</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -8112,7 +8110,7 @@
         <v>21</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>246</v>
@@ -8121,8 +8119,8 @@
         <v>441</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="1"/>
-        <v>(21,6,date_sub(curdate(), INTERVAL 183 DAY),33447.9),</v>
+        <f>"("&amp;B82&amp;","&amp;C82&amp;","&amp;D82&amp;","&amp;E82&amp;"),"</f>
+        <v>(21,7,date_sub(curdate(), INTERVAL 183 DAY),33447.9),</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -8133,17 +8131,17 @@
         <v>21</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E83">
-        <v>29996</v>
+        <v>35271</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="1"/>
-        <v>(21,7,date_sub(curdate(), INTERVAL 187 DAY),29996),</v>
+        <f>"("&amp;B83&amp;","&amp;C83&amp;","&amp;D83&amp;","&amp;E83&amp;"),"</f>
+        <v>(21,4,date_sub(curdate(), INTERVAL 186 DAY),35271),</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -8154,17 +8152,17 @@
         <v>21</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E84">
-        <v>35271</v>
+        <v>29996</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="1"/>
-        <v>(21,16,date_sub(curdate(), INTERVAL 186 DAY),35271),</v>
+        <f>"("&amp;B84&amp;","&amp;C84&amp;","&amp;D84&amp;","&amp;E84&amp;"),"</f>
+        <v>(21,8,date_sub(curdate(), INTERVAL 187 DAY),29996),</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8175,7 +8173,7 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
         <v>248</v>
@@ -8184,8 +8182,8 @@
         <v>442</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="1"/>
-        <v>(21,17,date_sub(curdate(), INTERVAL 190 DAY),38584.8),</v>
+        <f>"("&amp;B85&amp;","&amp;C85&amp;","&amp;D85&amp;","&amp;E85&amp;"),"</f>
+        <v>(21,7,date_sub(curdate(), INTERVAL 190 DAY),38584.8),</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,17 +8194,17 @@
         <v>22</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="1"/>
-        <v>(22,11,date_sub(curdate(), INTERVAL 188 DAY),171.8),</v>
+        <f>"("&amp;B86&amp;","&amp;C86&amp;","&amp;D86&amp;","&amp;E86&amp;"),"</f>
+        <v>(22,17,date_sub(curdate(), INTERVAL 184 DAY),196.5),</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -8217,7 +8215,7 @@
         <v>22</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
         <v>247</v>
@@ -8226,8 +8224,8 @@
         <v>444</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="1"/>
-        <v>(22,16,date_sub(curdate(), INTERVAL 186 DAY),141.2),</v>
+        <f>"("&amp;B87&amp;","&amp;C87&amp;","&amp;D87&amp;","&amp;E87&amp;"),"</f>
+        <v>(22,12,date_sub(curdate(), INTERVAL 186 DAY),141.2),</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8238,7 +8236,7 @@
         <v>22</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
         <v>247</v>
@@ -8247,8 +8245,8 @@
         <v>445</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="1"/>
-        <v>(22,17,date_sub(curdate(), INTERVAL 186 DAY),200.9),</v>
+        <f>"("&amp;B88&amp;","&amp;C88&amp;","&amp;D88&amp;","&amp;E88&amp;"),"</f>
+        <v>(22,15,date_sub(curdate(), INTERVAL 186 DAY),200.9),</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -8262,14 +8260,14 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="1"/>
-        <v>(22,11,date_sub(curdate(), INTERVAL 184 DAY),196.5),</v>
+        <f>"("&amp;B89&amp;","&amp;C89&amp;","&amp;D89&amp;","&amp;E89&amp;"),"</f>
+        <v>(22,11,date_sub(curdate(), INTERVAL 188 DAY),171.8),</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -8280,17 +8278,17 @@
         <v>23</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="1"/>
-        <v>(23,10,date_sub(curdate(), INTERVAL 186 DAY),41.4),</v>
+        <f>"("&amp;B90&amp;","&amp;C90&amp;","&amp;D90&amp;","&amp;E90&amp;"),"</f>
+        <v>(23,11,date_sub(curdate(), INTERVAL 183 DAY),38.2),</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -8301,7 +8299,7 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>244</v>
@@ -8310,8 +8308,8 @@
         <v>48</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="1"/>
-        <v>(23,14,date_sub(curdate(), INTERVAL 184 DAY),48),</v>
+        <f>"("&amp;B91&amp;","&amp;C91&amp;","&amp;D91&amp;","&amp;E91&amp;"),"</f>
+        <v>(23,18,date_sub(curdate(), INTERVAL 184 DAY),48),</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8322,17 +8320,17 @@
         <v>23</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="1"/>
-        <v>(23,16,date_sub(curdate(), INTERVAL 183 DAY),38.2),</v>
+        <f>"("&amp;B92&amp;","&amp;C92&amp;","&amp;D92&amp;","&amp;E92&amp;"),"</f>
+        <v>(23,17,date_sub(curdate(), INTERVAL 186 DAY),41.4),</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8343,7 +8341,7 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
         <v>233</v>
@@ -8352,8 +8350,8 @@
         <v>449</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="1"/>
-        <v>(23,17,date_sub(curdate(), INTERVAL 191 DAY),41.1),</v>
+        <f>"("&amp;B93&amp;","&amp;C93&amp;","&amp;D93&amp;","&amp;E93&amp;"),"</f>
+        <v>(23,12,date_sub(curdate(), INTERVAL 191 DAY),41.1),</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8364,17 +8362,17 @@
         <v>24</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="1"/>
-        <v>(24,10,date_sub(curdate(), INTERVAL 180 DAY),733.8),</v>
+        <f>"("&amp;B94&amp;","&amp;C94&amp;","&amp;D94&amp;","&amp;E94&amp;"),"</f>
+        <v>(24,17,date_sub(curdate(), INTERVAL 178 DAY),579.7),</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -8385,17 +8383,17 @@
         <v>24</v>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="1"/>
-        <v>(24,14,date_sub(curdate(), INTERVAL 178 DAY),579.7),</v>
+        <f>"("&amp;B95&amp;","&amp;C95&amp;","&amp;D95&amp;","&amp;E95&amp;"),"</f>
+        <v>(24,15,date_sub(curdate(), INTERVAL 180 DAY),733.8),</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -8406,7 +8404,7 @@
         <v>24</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
         <v>244</v>
@@ -8415,8 +8413,8 @@
         <v>452</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="1"/>
-        <v>(24,16,date_sub(curdate(), INTERVAL 184 DAY),622.4),</v>
+        <f>"("&amp;B96&amp;","&amp;C96&amp;","&amp;D96&amp;","&amp;E96&amp;"),"</f>
+        <v>(24,18,date_sub(curdate(), INTERVAL 184 DAY),622.4),</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -8427,7 +8425,7 @@
         <v>24</v>
       </c>
       <c r="C97">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
         <v>232</v>
@@ -8436,8 +8434,8 @@
         <v>453</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="1"/>
-        <v>(24,17,date_sub(curdate(), INTERVAL 189 DAY),796.2),</v>
+        <f>"("&amp;B97&amp;","&amp;C97&amp;","&amp;D97&amp;","&amp;E97&amp;"),"</f>
+        <v>(24,11,date_sub(curdate(), INTERVAL 189 DAY),796.2),</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -8448,17 +8446,17 @@
         <v>25</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="1"/>
-        <v>(25,3,date_sub(curdate(), INTERVAL 175 DAY),6572.1),</v>
+        <f>"("&amp;B98&amp;","&amp;C98&amp;","&amp;D98&amp;","&amp;E98&amp;"),"</f>
+        <v>(25,7,date_sub(curdate(), INTERVAL 172 DAY),6183.8),</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -8469,17 +8467,17 @@
         <v>25</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="1"/>
-        <v>(25,6,date_sub(curdate(), INTERVAL 172 DAY),6183.8),</v>
+        <f>"("&amp;B99&amp;","&amp;C99&amp;","&amp;D99&amp;","&amp;E99&amp;"),"</f>
+        <v>(25,4,date_sub(curdate(), INTERVAL 175 DAY),6572.1),</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -8490,7 +8488,7 @@
         <v>25</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>252</v>
@@ -8499,8 +8497,8 @@
         <v>456</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="1"/>
-        <v>(25,7,date_sub(curdate(), INTERVAL 177 DAY),5510.2),</v>
+        <f>"("&amp;B100&amp;","&amp;C100&amp;","&amp;D100&amp;","&amp;E100&amp;"),"</f>
+        <v>(25,8,date_sub(curdate(), INTERVAL 177 DAY),5510.2),</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -8511,7 +8509,7 @@
         <v>25</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>253</v>
@@ -8520,8 +8518,8 @@
         <v>457</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="1"/>
-        <v>(25,16,date_sub(curdate(), INTERVAL 181 DAY),6189.1),</v>
+        <f>"("&amp;B101&amp;","&amp;C101&amp;","&amp;D101&amp;","&amp;E101&amp;"),"</f>
+        <v>(25,4,date_sub(curdate(), INTERVAL 181 DAY),6189.1),</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -8532,7 +8530,7 @@
         <v>26</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>254</v>
@@ -8541,8 +8539,8 @@
         <v>458</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="1"/>
-        <v>(26,10,date_sub(curdate(), INTERVAL 174 DAY),100.5),</v>
+        <f>"("&amp;B102&amp;","&amp;C102&amp;","&amp;D102&amp;","&amp;E102&amp;"),"</f>
+        <v>(26,12,date_sub(curdate(), INTERVAL 174 DAY),100.5),</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -8553,17 +8551,17 @@
         <v>26</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E103" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="1"/>
-        <v>(26,14,date_sub(curdate(), INTERVAL 182 DAY),83.6),</v>
+        <f>"("&amp;B103&amp;","&amp;C103&amp;","&amp;D103&amp;","&amp;E103&amp;"),"</f>
+        <v>(26,18,date_sub(curdate(), INTERVAL 179 DAY),78.6),</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -8574,7 +8572,7 @@
         <v>26</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
         <v>114</v>
@@ -8583,8 +8581,8 @@
         <v>460</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="1"/>
-        <v>(26,16,date_sub(curdate(), INTERVAL 180 DAY),82.4),</v>
+        <f>"("&amp;B104&amp;","&amp;C104&amp;","&amp;D104&amp;","&amp;E104&amp;"),"</f>
+        <v>(26,17,date_sub(curdate(), INTERVAL 180 DAY),82.4),</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,17 +8593,17 @@
         <v>26</v>
       </c>
       <c r="C105">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E105" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="1"/>
-        <v>(26,17,date_sub(curdate(), INTERVAL 179 DAY),78.6),</v>
+        <f>"("&amp;B105&amp;","&amp;C105&amp;","&amp;D105&amp;","&amp;E105&amp;"),"</f>
+        <v>(26,15,date_sub(curdate(), INTERVAL 182 DAY),83.6),</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -8616,17 +8614,17 @@
         <v>27</v>
       </c>
       <c r="C106">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E106" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="1"/>
-        <v>(27,17,date_sub(curdate(), INTERVAL 173 DAY),1797.5),</v>
+        <f>"("&amp;B106&amp;","&amp;C106&amp;","&amp;D106&amp;","&amp;E106&amp;"),"</f>
+        <v>(27,12,date_sub(curdate(), INTERVAL 171 DAY),1682.7),</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -8637,17 +8635,17 @@
         <v>27</v>
       </c>
       <c r="C107">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E107" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="1"/>
-        <v>(27,14,date_sub(curdate(), INTERVAL 171 DAY),1682.7),</v>
+        <f>"("&amp;B107&amp;","&amp;C107&amp;","&amp;D107&amp;","&amp;E107&amp;"),"</f>
+        <v>(27,11,date_sub(curdate(), INTERVAL 173 DAY),1797.5),</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -8658,7 +8656,7 @@
         <v>27</v>
       </c>
       <c r="C108">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
         <v>259</v>
@@ -8667,8 +8665,8 @@
         <v>464</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="1"/>
-        <v>(27,16,date_sub(curdate(), INTERVAL 176 DAY),1902.5),</v>
+        <f>"("&amp;B108&amp;","&amp;C108&amp;","&amp;D108&amp;","&amp;E108&amp;"),"</f>
+        <v>(27,15,date_sub(curdate(), INTERVAL 176 DAY),1902.5),</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -8688,7 +8686,7 @@
         <v>465</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="1"/>
+        <f>"("&amp;B109&amp;","&amp;C109&amp;","&amp;D109&amp;","&amp;E109&amp;"),"</f>
         <v>(27,17,date_sub(curdate(), INTERVAL 180 DAY),1905.8),</v>
       </c>
     </row>
@@ -8700,17 +8698,17 @@
         <v>28</v>
       </c>
       <c r="C110">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="1"/>
-        <v>(28,18,date_sub(curdate(), INTERVAL 182 DAY),191.9),</v>
+        <f>"("&amp;B110&amp;","&amp;C110&amp;","&amp;D110&amp;","&amp;E110&amp;"),"</f>
+        <v>(28,16,date_sub(curdate(), INTERVAL 170 DAY),152.5),</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -8721,17 +8719,17 @@
         <v>28</v>
       </c>
       <c r="C111">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E111" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="1"/>
-        <v>(28,14,date_sub(curdate(), INTERVAL 182 DAY),174.1),</v>
+        <f>"("&amp;B111&amp;","&amp;C111&amp;","&amp;D111&amp;","&amp;E111&amp;"),"</f>
+        <v>(28,19,date_sub(curdate(), INTERVAL 179 DAY),198.5),</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -8742,17 +8740,17 @@
         <v>28</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="E112" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="1"/>
-        <v>(28,15,date_sub(curdate(), INTERVAL 170 DAY),152.5),</v>
+        <f>"("&amp;B112&amp;","&amp;C112&amp;","&amp;D112&amp;","&amp;E112&amp;"),"</f>
+        <v>(28,19,date_sub(curdate(), INTERVAL 182 DAY),191.9),</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8763,17 +8761,17 @@
         <v>28</v>
       </c>
       <c r="C113">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E113" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="1"/>
-        <v>(28,18,date_sub(curdate(), INTERVAL 179 DAY),198.5),</v>
+        <f>"("&amp;B113&amp;","&amp;C113&amp;","&amp;D113&amp;","&amp;E113&amp;"),"</f>
+        <v>(28,11,date_sub(curdate(), INTERVAL 182 DAY),174.1),</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8784,17 +8782,17 @@
         <v>29</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>260</v>
-      </c>
-      <c r="E114">
-        <v>80</v>
+        <v>262</v>
+      </c>
+      <c r="E114" t="s">
+        <v>471</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="1"/>
-        <v>(29,10,date_sub(curdate(), INTERVAL 169 DAY),80),</v>
+        <f>"("&amp;B114&amp;","&amp;C114&amp;","&amp;D114&amp;","&amp;E114&amp;"),"</f>
+        <v>(29,17,date_sub(curdate(), INTERVAL 165 DAY),96.7),</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8805,7 +8803,7 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
         <v>261</v>
@@ -8814,8 +8812,8 @@
         <v>79</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="1"/>
-        <v>(29,14,date_sub(curdate(), INTERVAL 167 DAY),79),</v>
+        <f>"("&amp;B115&amp;","&amp;C115&amp;","&amp;D115&amp;","&amp;E115&amp;"),"</f>
+        <v>(29,12,date_sub(curdate(), INTERVAL 167 DAY),79),</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8826,7 +8824,7 @@
         <v>29</v>
       </c>
       <c r="C116">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
         <v>261</v>
@@ -8835,8 +8833,8 @@
         <v>470</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="1"/>
-        <v>(29,16,date_sub(curdate(), INTERVAL 167 DAY),75.5),</v>
+        <f>"("&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;"),"</f>
+        <v>(29,15,date_sub(curdate(), INTERVAL 167 DAY),75.5),</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8847,17 +8845,17 @@
         <v>29</v>
       </c>
       <c r="C117">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>262</v>
-      </c>
-      <c r="E117" t="s">
-        <v>471</v>
+        <v>260</v>
+      </c>
+      <c r="E117">
+        <v>80</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="1"/>
-        <v>(29,17,date_sub(curdate(), INTERVAL 165 DAY),96.7),</v>
+        <f>"("&amp;B117&amp;","&amp;C117&amp;","&amp;D117&amp;","&amp;E117&amp;"),"</f>
+        <v>(29,11,date_sub(curdate(), INTERVAL 169 DAY),80),</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -8868,17 +8866,17 @@
         <v>30</v>
       </c>
       <c r="C118">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="1"/>
-        <v>(30,14,date_sub(curdate(), INTERVAL 172 DAY),1626.8),</v>
+        <f>"("&amp;B118&amp;","&amp;C118&amp;","&amp;D118&amp;","&amp;E118&amp;"),"</f>
+        <v>(30,11,date_sub(curdate(), INTERVAL 162 DAY),1696.7),</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -8889,17 +8887,17 @@
         <v>30</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E119" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="1"/>
-        <v>(30,16,date_sub(curdate(), INTERVAL 162 DAY),1696.7),</v>
+        <f>"("&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;"),"</f>
+        <v>(30,12,date_sub(curdate(), INTERVAL 165 DAY),1530.2),</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -8910,17 +8908,17 @@
         <v>30</v>
       </c>
       <c r="C120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E120" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="1"/>
-        <v>(30,17,date_sub(curdate(), INTERVAL 165 DAY),1530.2),</v>
+        <f>"("&amp;B120&amp;","&amp;C120&amp;","&amp;D120&amp;","&amp;E120&amp;"),"</f>
+        <v>(30,15,date_sub(curdate(), INTERVAL 169 DAY),1418.7),</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8931,17 +8929,17 @@
         <v>30</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E121" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="1"/>
-        <v>(30,14,date_sub(curdate(), INTERVAL 169 DAY),1418.7),</v>
+        <f>"("&amp;B121&amp;","&amp;C121&amp;","&amp;D121&amp;","&amp;E121&amp;"),"</f>
+        <v>(30,18,date_sub(curdate(), INTERVAL 172 DAY),1626.8),</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8952,17 +8950,17 @@
         <v>31</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E122" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="1"/>
-        <v>(31,10,date_sub(curdate(), INTERVAL 167 DAY),96.7),</v>
+        <f>"("&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;"),"</f>
+        <v>(31,12,date_sub(curdate(), INTERVAL 164 DAY),83.6),</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8973,17 +8971,17 @@
         <v>31</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E123" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="1"/>
-        <v>(31,14,date_sub(curdate(), INTERVAL 172 DAY),90.1),</v>
+        <f>"("&amp;B123&amp;","&amp;C123&amp;","&amp;D123&amp;","&amp;E123&amp;"),"</f>
+        <v>(31,18,date_sub(curdate(), INTERVAL 167 DAY),96.7),</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8994,17 +8992,17 @@
         <v>31</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E124" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="1"/>
-        <v>(31,16,date_sub(curdate(), INTERVAL 164 DAY),83.6),</v>
+        <f>"("&amp;B124&amp;","&amp;C124&amp;","&amp;D124&amp;","&amp;E124&amp;"),"</f>
+        <v>(31,15,date_sub(curdate(), INTERVAL 171 DAY),87.2),</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,17 +9013,17 @@
         <v>31</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E125" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="1"/>
-        <v>(31,17,date_sub(curdate(), INTERVAL 171 DAY),87.2),</v>
+        <f>"("&amp;B125&amp;","&amp;C125&amp;","&amp;D125&amp;","&amp;E125&amp;"),"</f>
+        <v>(31,11,date_sub(curdate(), INTERVAL 172 DAY),90.1),</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,17 +9034,17 @@
         <v>32</v>
       </c>
       <c r="C126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E126" t="s">
-        <v>384</v>
+        <v>478</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="1"/>
-        <v>(32,14,date_sub(curdate(), INTERVAL 166 DAY),195.8),</v>
+        <f>"("&amp;B126&amp;","&amp;C126&amp;","&amp;D126&amp;","&amp;E126&amp;"),"</f>
+        <v>(32,16,date_sub(curdate(), INTERVAL 165 DAY),158.4),</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,17 +9055,17 @@
         <v>32</v>
       </c>
       <c r="C127">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E127" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="1"/>
-        <v>(32,15,date_sub(curdate(), INTERVAL 165 DAY),158.4),</v>
+        <f>"("&amp;B127&amp;","&amp;C127&amp;","&amp;D127&amp;","&amp;E127&amp;"),"</f>
+        <v>(32,11,date_sub(curdate(), INTERVAL 166 DAY),195.8),</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -9078,7 +9076,7 @@
         <v>32</v>
       </c>
       <c r="C128">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
         <v>261</v>
@@ -9087,8 +9085,8 @@
         <v>479</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="1"/>
-        <v>(32,18,date_sub(curdate(), INTERVAL 167 DAY),175.2),</v>
+        <f>"("&amp;B128&amp;","&amp;C128&amp;","&amp;D128&amp;","&amp;E128&amp;"),"</f>
+        <v>(32,19,date_sub(curdate(), INTERVAL 167 DAY),175.2),</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -9099,7 +9097,7 @@
         <v>32</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
         <v>260</v>
@@ -9108,8 +9106,8 @@
         <v>480</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="1"/>
-        <v>(32,14,date_sub(curdate(), INTERVAL 169 DAY),157.1),</v>
+        <f>"("&amp;B129&amp;","&amp;C129&amp;","&amp;D129&amp;","&amp;E129&amp;"),"</f>
+        <v>(32,11,date_sub(curdate(), INTERVAL 169 DAY),157.1),</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -9120,17 +9118,17 @@
         <v>33</v>
       </c>
       <c r="C130">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>266</v>
-      </c>
-      <c r="E130">
-        <v>341</v>
+        <v>267</v>
+      </c>
+      <c r="E130" t="s">
+        <v>481</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="1"/>
-        <v>(33,16,date_sub(curdate(), INTERVAL 163 DAY),341),</v>
+        <f>"("&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;","&amp;E130&amp;"),"</f>
+        <v>(33,18,date_sub(curdate(), INTERVAL 156 DAY),312.1),</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -9144,14 +9142,14 @@
         <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
-      </c>
-      <c r="E131" t="s">
-        <v>481</v>
+        <v>266</v>
+      </c>
+      <c r="E131">
+        <v>341</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F194" si="2">"("&amp;B131&amp;","&amp;C131&amp;","&amp;D131&amp;","&amp;E131&amp;"),"</f>
-        <v>(33,17,date_sub(curdate(), INTERVAL 156 DAY),312.1),</v>
+        <f>"("&amp;B131&amp;","&amp;C131&amp;","&amp;D131&amp;","&amp;E131&amp;"),"</f>
+        <v>(33,17,date_sub(curdate(), INTERVAL 163 DAY),341),</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -9162,7 +9160,7 @@
         <v>33</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
         <v>266</v>
@@ -9171,8 +9169,8 @@
         <v>482</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="2"/>
-        <v>(33,14,date_sub(curdate(), INTERVAL 163 DAY),296.5),</v>
+        <f>"("&amp;B132&amp;","&amp;C132&amp;","&amp;D132&amp;","&amp;E132&amp;"),"</f>
+        <v>(33,11,date_sub(curdate(), INTERVAL 163 DAY),296.5),</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -9183,7 +9181,7 @@
         <v>33</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
         <v>264</v>
@@ -9192,8 +9190,8 @@
         <v>483</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="2"/>
-        <v>(33,16,date_sub(curdate(), INTERVAL 164 DAY),352.1),</v>
+        <f>"("&amp;B133&amp;","&amp;C133&amp;","&amp;D133&amp;","&amp;E133&amp;"),"</f>
+        <v>(33,12,date_sub(curdate(), INTERVAL 164 DAY),352.1),</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,17 +9202,17 @@
         <v>34</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
-      </c>
-      <c r="E134">
-        <v>3690</v>
+        <v>269</v>
+      </c>
+      <c r="E134" t="s">
+        <v>485</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="2"/>
-        <v>(34,17,date_sub(curdate(), INTERVAL 167 DAY),3690),</v>
+        <f>"("&amp;B134&amp;","&amp;C134&amp;","&amp;D134&amp;","&amp;E134&amp;"),"</f>
+        <v>(34,18,date_sub(curdate(), INTERVAL 157 DAY),4808.4),</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -9225,7 +9223,7 @@
         <v>34</v>
       </c>
       <c r="C135">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
         <v>268</v>
@@ -9234,8 +9232,8 @@
         <v>484</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="2"/>
-        <v>(34,14,date_sub(curdate(), INTERVAL 161 DAY),4670.9),</v>
+        <f>"("&amp;B135&amp;","&amp;C135&amp;","&amp;D135&amp;","&amp;E135&amp;"),"</f>
+        <v>(34,17,date_sub(curdate(), INTERVAL 161 DAY),4670.9),</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -9246,17 +9244,17 @@
         <v>34</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E136" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="2"/>
-        <v>(34,16,date_sub(curdate(), INTERVAL 157 DAY),4808.4),</v>
+        <f>"("&amp;B136&amp;","&amp;C136&amp;","&amp;D136&amp;","&amp;E136&amp;"),"</f>
+        <v>(34,11,date_sub(curdate(), INTERVAL 165 DAY),4740.8),</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -9267,17 +9265,17 @@
         <v>34</v>
       </c>
       <c r="C137">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>262</v>
-      </c>
-      <c r="E137" t="s">
-        <v>486</v>
+        <v>261</v>
+      </c>
+      <c r="E137">
+        <v>3690</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="2"/>
-        <v>(34,17,date_sub(curdate(), INTERVAL 165 DAY),4740.8),</v>
+        <f>"("&amp;B137&amp;","&amp;C137&amp;","&amp;D137&amp;","&amp;E137&amp;"),"</f>
+        <v>(34,15,date_sub(curdate(), INTERVAL 167 DAY),3690),</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -9288,17 +9286,17 @@
         <v>35</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E138" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="2"/>
-        <v>(35,10,date_sub(curdate(), INTERVAL 163 DAY),1852.9),</v>
+        <f>"("&amp;B138&amp;","&amp;C138&amp;","&amp;D138&amp;","&amp;E138&amp;"),"</f>
+        <v>(35,18,date_sub(curdate(), INTERVAL 155 DAY),1488.9),</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -9309,17 +9307,17 @@
         <v>35</v>
       </c>
       <c r="C139">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E139" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="2"/>
-        <v>(35,14,date_sub(curdate(), INTERVAL 155 DAY),1488.9),</v>
+        <f>"("&amp;B139&amp;","&amp;C139&amp;","&amp;D139&amp;","&amp;E139&amp;"),"</f>
+        <v>(35,17,date_sub(curdate(), INTERVAL 163 DAY),1852.9),</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -9330,7 +9328,7 @@
         <v>35</v>
       </c>
       <c r="C140">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
         <v>262</v>
@@ -9339,8 +9337,8 @@
         <v>489</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="2"/>
-        <v>(35,16,date_sub(curdate(), INTERVAL 165 DAY),1562.4),</v>
+        <f>"("&amp;B140&amp;","&amp;C140&amp;","&amp;D140&amp;","&amp;E140&amp;"),"</f>
+        <v>(35,11,date_sub(curdate(), INTERVAL 165 DAY),1562.4),</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -9351,7 +9349,7 @@
         <v>35</v>
       </c>
       <c r="C141">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
         <v>265</v>
@@ -9360,8 +9358,8 @@
         <v>490</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="2"/>
-        <v>(35,17,date_sub(curdate(), INTERVAL 166 DAY),1479.5),</v>
+        <f>"("&amp;B141&amp;","&amp;C141&amp;","&amp;D141&amp;","&amp;E141&amp;"),"</f>
+        <v>(35,12,date_sub(curdate(), INTERVAL 166 DAY),1479.5),</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -9372,17 +9370,17 @@
         <v>36</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E142" t="s">
-        <v>401</v>
+        <v>492</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="2"/>
-        <v>(36,4,date_sub(curdate(), INTERVAL 162 DAY),5.9),</v>
+        <f>"("&amp;B142&amp;","&amp;C142&amp;","&amp;D142&amp;","&amp;E142&amp;"),"</f>
+        <v>(36,5,date_sub(curdate(), INTERVAL 158 DAY),5.4),</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -9393,17 +9391,17 @@
         <v>36</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>271</v>
-      </c>
-      <c r="E143" t="s">
-        <v>491</v>
+        <v>272</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="2"/>
-        <v>(36,5,date_sub(curdate(), INTERVAL 159 DAY),6.3),</v>
+        <f>"("&amp;B143&amp;","&amp;C143&amp;","&amp;D143&amp;","&amp;E143&amp;"),"</f>
+        <v>(36,6,date_sub(curdate(), INTERVAL 158 DAY),6),</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -9414,17 +9412,17 @@
         <v>36</v>
       </c>
       <c r="C144">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E144" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="2"/>
-        <v>(36,17,date_sub(curdate(), INTERVAL 158 DAY),5.4),</v>
+        <f>"("&amp;B144&amp;","&amp;C144&amp;","&amp;D144&amp;","&amp;E144&amp;"),"</f>
+        <v>(36,11,date_sub(curdate(), INTERVAL 159 DAY),6.3),</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -9435,17 +9433,17 @@
         <v>36</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>272</v>
-      </c>
-      <c r="E145">
-        <v>6</v>
+        <v>263</v>
+      </c>
+      <c r="E145" t="s">
+        <v>401</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="2"/>
-        <v>(36,5,date_sub(curdate(), INTERVAL 158 DAY),6),</v>
+        <f>"("&amp;B145&amp;","&amp;C145&amp;","&amp;D145&amp;","&amp;E145&amp;"),"</f>
+        <v>(36,6,date_sub(curdate(), INTERVAL 162 DAY),5.9),</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -9456,17 +9454,17 @@
         <v>37</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E146" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="2"/>
-        <v>(37,11,date_sub(curdate(), INTERVAL 146 DAY),1893.7),</v>
+        <f>"("&amp;B146&amp;","&amp;C146&amp;","&amp;D146&amp;","&amp;E146&amp;"),"</f>
+        <v>(37,15,date_sub(curdate(), INTERVAL 140 DAY),2086.9),</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -9477,17 +9475,17 @@
         <v>37</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E147" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="2"/>
-        <v>(37,14,date_sub(curdate(), INTERVAL 147 DAY),2084.1),</v>
+        <f>"("&amp;B147&amp;","&amp;C147&amp;","&amp;D147&amp;","&amp;E147&amp;"),"</f>
+        <v>(37,11,date_sub(curdate(), INTERVAL 146 DAY),1893.7),</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -9498,17 +9496,17 @@
         <v>37</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E148" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="2"/>
-        <v>(37,16,date_sub(curdate(), INTERVAL 140 DAY),2086.9),</v>
+        <f>"("&amp;B148&amp;","&amp;C148&amp;","&amp;D148&amp;","&amp;E148&amp;"),"</f>
+        <v>(37,17,date_sub(curdate(), INTERVAL 146 DAY),1995.1),</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -9519,17 +9517,17 @@
         <v>37</v>
       </c>
       <c r="C149">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E149" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="2"/>
-        <v>(37,17,date_sub(curdate(), INTERVAL 146 DAY),1995.1),</v>
+        <f>"("&amp;B149&amp;","&amp;C149&amp;","&amp;D149&amp;","&amp;E149&amp;"),"</f>
+        <v>(37,12,date_sub(curdate(), INTERVAL 147 DAY),2084.1),</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -9540,17 +9538,17 @@
         <v>38</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E150" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="2"/>
-        <v>(38,10,date_sub(curdate(), INTERVAL 139 DAY),48.9),</v>
+        <f>"("&amp;B150&amp;","&amp;C150&amp;","&amp;D150&amp;","&amp;E150&amp;"),"</f>
+        <v>(38,17,date_sub(curdate(), INTERVAL 136 DAY),37.2),</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -9561,17 +9559,17 @@
         <v>38</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="2"/>
-        <v>(38,14,date_sub(curdate(), INTERVAL 136 DAY),37.2),</v>
+        <f>"("&amp;B151&amp;","&amp;C151&amp;","&amp;D151&amp;","&amp;E151&amp;"),"</f>
+        <v>(38,15,date_sub(curdate(), INTERVAL 139 DAY),48.9),</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -9582,17 +9580,17 @@
         <v>38</v>
       </c>
       <c r="C152">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E152" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="2"/>
-        <v>(38,16,date_sub(curdate(), INTERVAL 148 DAY),35.9),</v>
+        <f>"("&amp;B152&amp;","&amp;C152&amp;","&amp;D152&amp;","&amp;E152&amp;"),"</f>
+        <v>(38,11,date_sub(curdate(), INTERVAL 140 DAY),41.5),</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -9603,17 +9601,17 @@
         <v>38</v>
       </c>
       <c r="C153">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E153" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="2"/>
-        <v>(38,17,date_sub(curdate(), INTERVAL 140 DAY),41.5),</v>
+        <f>"("&amp;B153&amp;","&amp;C153&amp;","&amp;D153&amp;","&amp;E153&amp;"),"</f>
+        <v>(38,18,date_sub(curdate(), INTERVAL 148 DAY),35.9),</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -9624,17 +9622,17 @@
         <v>39</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E154" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="2"/>
-        <v>(39,10,date_sub(curdate(), INTERVAL 143 DAY),88.6),</v>
+        <f>"("&amp;B154&amp;","&amp;C154&amp;","&amp;D154&amp;","&amp;E154&amp;"),"</f>
+        <v>(39,17,date_sub(curdate(), INTERVAL 137 DAY),94.1),</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -9645,17 +9643,17 @@
         <v>39</v>
       </c>
       <c r="C155">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E155" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="2"/>
-        <v>(39,14,date_sub(curdate(), INTERVAL 142 DAY),79.5),</v>
+        <f>"("&amp;B155&amp;","&amp;C155&amp;","&amp;D155&amp;","&amp;E155&amp;"),"</f>
+        <v>(39,18,date_sub(curdate(), INTERVAL 139 DAY),95.1),</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -9666,17 +9664,17 @@
         <v>39</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E156" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="2"/>
-        <v>(39,16,date_sub(curdate(), INTERVAL 137 DAY),94.1),</v>
+        <f>"("&amp;B156&amp;","&amp;C156&amp;","&amp;D156&amp;","&amp;E156&amp;"),"</f>
+        <v>(39,15,date_sub(curdate(), INTERVAL 142 DAY),79.5),</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -9687,17 +9685,17 @@
         <v>39</v>
       </c>
       <c r="C157">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E157" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="2"/>
-        <v>(39,17,date_sub(curdate(), INTERVAL 139 DAY),95.1),</v>
+        <f>"("&amp;B157&amp;","&amp;C157&amp;","&amp;D157&amp;","&amp;E157&amp;"),"</f>
+        <v>(39,12,date_sub(curdate(), INTERVAL 143 DAY),88.6),</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -9708,7 +9706,7 @@
         <v>40</v>
       </c>
       <c r="C158">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
         <v>280</v>
@@ -9717,8 +9715,8 @@
         <v>505</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="2"/>
-        <v>(40,14,date_sub(curdate(), INTERVAL 142 DAY),1433.4),</v>
+        <f>"("&amp;B158&amp;","&amp;C158&amp;","&amp;D158&amp;","&amp;E158&amp;"),"</f>
+        <v>(40,12,date_sub(curdate(), INTERVAL 142 DAY),1433.4),</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -9729,17 +9727,17 @@
         <v>40</v>
       </c>
       <c r="C159">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E159" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="2"/>
-        <v>(40,16,date_sub(curdate(), INTERVAL 144 DAY),1548.2),</v>
+        <f>"("&amp;B159&amp;","&amp;C159&amp;","&amp;D159&amp;","&amp;E159&amp;"),"</f>
+        <v>(40,17,date_sub(curdate(), INTERVAL 143 DAY),1802.1),</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -9750,17 +9748,17 @@
         <v>40</v>
       </c>
       <c r="C160">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E160" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="2"/>
-        <v>(40,17,date_sub(curdate(), INTERVAL 143 DAY),1802.1),</v>
+        <f>"("&amp;B160&amp;","&amp;C160&amp;","&amp;D160&amp;","&amp;E160&amp;"),"</f>
+        <v>(40,15,date_sub(curdate(), INTERVAL 144 DAY),1548.2),</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -9771,7 +9769,7 @@
         <v>40</v>
       </c>
       <c r="C161">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
         <v>274</v>
@@ -9780,8 +9778,8 @@
         <v>508</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="2"/>
-        <v>(40,14,date_sub(curdate(), INTERVAL 147 DAY),1767.4),</v>
+        <f>"("&amp;B161&amp;","&amp;C161&amp;","&amp;D161&amp;","&amp;E161&amp;"),"</f>
+        <v>(40,18,date_sub(curdate(), INTERVAL 147 DAY),1767.4),</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -9792,17 +9790,17 @@
         <v>41</v>
       </c>
       <c r="C162">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E162" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="2"/>
-        <v>(41,16,date_sub(curdate(), INTERVAL 136 DAY),688.7),</v>
+        <f>"("&amp;B162&amp;","&amp;C162&amp;","&amp;D162&amp;","&amp;E162&amp;"),"</f>
+        <v>(41,15,date_sub(curdate(), INTERVAL 126 DAY),587.7),</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -9816,14 +9814,14 @@
         <v>17</v>
       </c>
       <c r="D163" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E163" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="2"/>
-        <v>(41,17,date_sub(curdate(), INTERVAL 135 DAY),776.5),</v>
+        <f>"("&amp;B163&amp;","&amp;C163&amp;","&amp;D163&amp;","&amp;E163&amp;"),"</f>
+        <v>(41,17,date_sub(curdate(), INTERVAL 130 DAY),775.4),</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -9834,17 +9832,17 @@
         <v>41</v>
       </c>
       <c r="C164">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E164" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="2"/>
-        <v>(41,14,date_sub(curdate(), INTERVAL 126 DAY),587.7),</v>
+        <f>"("&amp;B164&amp;","&amp;C164&amp;","&amp;D164&amp;","&amp;E164&amp;"),"</f>
+        <v>(41,12,date_sub(curdate(), INTERVAL 135 DAY),776.5),</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -9855,17 +9853,17 @@
         <v>41</v>
       </c>
       <c r="C165">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E165" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="2"/>
-        <v>(41,16,date_sub(curdate(), INTERVAL 130 DAY),775.4),</v>
+        <f>"("&amp;B165&amp;","&amp;C165&amp;","&amp;D165&amp;","&amp;E165&amp;"),"</f>
+        <v>(41,11,date_sub(curdate(), INTERVAL 136 DAY),688.7),</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -9876,17 +9874,17 @@
         <v>42</v>
       </c>
       <c r="C166">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E166" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="2"/>
-        <v>(42,15,date_sub(curdate(), INTERVAL 132 DAY),156.4),</v>
+        <f>"("&amp;B166&amp;","&amp;C166&amp;","&amp;D166&amp;","&amp;E166&amp;"),"</f>
+        <v>(42,16,date_sub(curdate(), INTERVAL 127 DAY),156.2),</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,17 +9895,17 @@
         <v>42</v>
       </c>
       <c r="C167">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
         <v>286</v>
       </c>
       <c r="E167" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="2"/>
-        <v>(42,18,date_sub(curdate(), INTERVAL 132 DAY),150.3),</v>
+        <f>"("&amp;B167&amp;","&amp;C167&amp;","&amp;D167&amp;","&amp;E167&amp;"),"</f>
+        <v>(42,16,date_sub(curdate(), INTERVAL 132 DAY),156.4),</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -9918,17 +9916,17 @@
         <v>42</v>
       </c>
       <c r="C168">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D168" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E168" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="2"/>
-        <v>(42,14,date_sub(curdate(), INTERVAL 133 DAY),163.9),</v>
+        <f>"("&amp;B168&amp;","&amp;C168&amp;","&amp;D168&amp;","&amp;E168&amp;"),"</f>
+        <v>(42,19,date_sub(curdate(), INTERVAL 132 DAY),150.3),</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -9939,17 +9937,17 @@
         <v>42</v>
       </c>
       <c r="C169">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E169" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="2"/>
-        <v>(42,15,date_sub(curdate(), INTERVAL 127 DAY),156.2),</v>
+        <f>"("&amp;B169&amp;","&amp;C169&amp;","&amp;D169&amp;","&amp;E169&amp;"),"</f>
+        <v>(42,11,date_sub(curdate(), INTERVAL 133 DAY),163.9),</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -9960,17 +9958,17 @@
         <v>43</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E170" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="2"/>
-        <v>(43,10,date_sub(curdate(), INTERVAL 138 DAY),179.7),</v>
+        <f>"("&amp;B170&amp;","&amp;C170&amp;","&amp;D170&amp;","&amp;E170&amp;"),"</f>
+        <v>(43,12,date_sub(curdate(), INTERVAL 128 DAY),179.9),</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -9981,17 +9979,17 @@
         <v>43</v>
       </c>
       <c r="C171">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E171" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="2"/>
-        <v>(43,14,date_sub(curdate(), INTERVAL 128 DAY),179.9),</v>
+        <f>"("&amp;B171&amp;","&amp;C171&amp;","&amp;D171&amp;","&amp;E171&amp;"),"</f>
+        <v>(43,17,date_sub(curdate(), INTERVAL 129 DAY),154.6),</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -10002,7 +10000,7 @@
         <v>43</v>
       </c>
       <c r="C172">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
         <v>281</v>
@@ -10011,8 +10009,8 @@
         <v>519</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="2"/>
-        <v>(43,16,date_sub(curdate(), INTERVAL 137 DAY),171.9),</v>
+        <f>"("&amp;B172&amp;","&amp;C172&amp;","&amp;D172&amp;","&amp;E172&amp;"),"</f>
+        <v>(43,15,date_sub(curdate(), INTERVAL 137 DAY),171.9),</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -10023,17 +10021,17 @@
         <v>43</v>
       </c>
       <c r="C173">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E173" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="2"/>
-        <v>(43,17,date_sub(curdate(), INTERVAL 129 DAY),154.6),</v>
+        <f>"("&amp;B173&amp;","&amp;C173&amp;","&amp;D173&amp;","&amp;E173&amp;"),"</f>
+        <v>(43,11,date_sub(curdate(), INTERVAL 138 DAY),179.7),</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -10044,7 +10042,7 @@
         <v>44</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
         <v>288</v>
@@ -10053,8 +10051,8 @@
         <v>521</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="2"/>
-        <v>(44,10,date_sub(curdate(), INTERVAL 127 DAY),35.2),</v>
+        <f>"("&amp;B174&amp;","&amp;C174&amp;","&amp;D174&amp;","&amp;E174&amp;"),"</f>
+        <v>(44,18,date_sub(curdate(), INTERVAL 127 DAY),35.2),</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -10065,17 +10063,17 @@
         <v>44</v>
       </c>
       <c r="C175">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E175" t="s">
-        <v>522</v>
+        <v>371</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="2"/>
-        <v>(44,14,date_sub(curdate(), INTERVAL 129 DAY),38.7),</v>
+        <f>"("&amp;B175&amp;","&amp;C175&amp;","&amp;D175&amp;","&amp;E175&amp;"),"</f>
+        <v>(44,15,date_sub(curdate(), INTERVAL 127 DAY),40.1),</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -10086,17 +10084,17 @@
         <v>44</v>
       </c>
       <c r="C176">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E176" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="2"/>
-        <v>(44,16,date_sub(curdate(), INTERVAL 139 DAY),50.2),</v>
+        <f>"("&amp;B176&amp;","&amp;C176&amp;","&amp;D176&amp;","&amp;E176&amp;"),"</f>
+        <v>(44,11,date_sub(curdate(), INTERVAL 129 DAY),38.7),</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -10107,17 +10105,17 @@
         <v>44</v>
       </c>
       <c r="C177">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E177" t="s">
-        <v>371</v>
+        <v>523</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="2"/>
-        <v>(44,17,date_sub(curdate(), INTERVAL 127 DAY),40.1),</v>
+        <f>"("&amp;B177&amp;","&amp;C177&amp;","&amp;D177&amp;","&amp;E177&amp;"),"</f>
+        <v>(44,12,date_sub(curdate(), INTERVAL 139 DAY),50.2),</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -10128,7 +10126,7 @@
         <v>45</v>
       </c>
       <c r="C178">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
         <v>292</v>
@@ -10137,8 +10135,8 @@
         <v>524</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="2"/>
-        <v>(45,18,date_sub(curdate(), INTERVAL 122 DAY),197.3),</v>
+        <f>"("&amp;B178&amp;","&amp;C178&amp;","&amp;D178&amp;","&amp;E178&amp;"),"</f>
+        <v>(45,19,date_sub(curdate(), INTERVAL 122 DAY),197.3),</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -10149,17 +10147,17 @@
         <v>45</v>
       </c>
       <c r="C179">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E179" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="2"/>
-        <v>(45,14,date_sub(curdate(), INTERVAL 130 DAY),141.4),</v>
+        <f>"("&amp;B179&amp;","&amp;C179&amp;","&amp;D179&amp;","&amp;E179&amp;"),"</f>
+        <v>(45,19,date_sub(curdate(), INTERVAL 128 DAY),191.1),</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -10170,17 +10168,17 @@
         <v>45</v>
       </c>
       <c r="C180">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E180" t="s">
-        <v>525</v>
+        <v>416</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="2"/>
-        <v>(45,15,date_sub(curdate(), INTERVAL 132 DAY),190.9),</v>
+        <f>"("&amp;B180&amp;","&amp;C180&amp;","&amp;D180&amp;","&amp;E180&amp;"),"</f>
+        <v>(45,11,date_sub(curdate(), INTERVAL 130 DAY),141.4),</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -10191,17 +10189,17 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="2"/>
-        <v>(45,18,date_sub(curdate(), INTERVAL 128 DAY),191.1),</v>
+        <f>"("&amp;B181&amp;","&amp;C181&amp;","&amp;D181&amp;","&amp;E181&amp;"),"</f>
+        <v>(45,16,date_sub(curdate(), INTERVAL 132 DAY),190.9),</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -10212,7 +10210,7 @@
         <v>46</v>
       </c>
       <c r="C182">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D182" t="s">
         <v>292</v>
@@ -10221,8 +10219,8 @@
         <v>527</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="2"/>
-        <v>(46,10,date_sub(curdate(), INTERVAL 122 DAY),80.5),</v>
+        <f>"("&amp;B182&amp;","&amp;C182&amp;","&amp;D182&amp;","&amp;E182&amp;"),"</f>
+        <v>(46,17,date_sub(curdate(), INTERVAL 122 DAY),80.5),</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -10233,17 +10231,17 @@
         <v>46</v>
       </c>
       <c r="C183">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E183" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="2"/>
-        <v>(46,14,date_sub(curdate(), INTERVAL 129 DAY),100.6),</v>
+        <f>"("&amp;B183&amp;","&amp;C183&amp;","&amp;D183&amp;","&amp;E183&amp;"),"</f>
+        <v>(46,11,date_sub(curdate(), INTERVAL 125 DAY),70.1),</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -10254,17 +10252,17 @@
         <v>46</v>
       </c>
       <c r="C184">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E184" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="2"/>
-        <v>(46,16,date_sub(curdate(), INTERVAL 125 DAY),70.1),</v>
+        <f>"("&amp;B184&amp;","&amp;C184&amp;","&amp;D184&amp;","&amp;E184&amp;"),"</f>
+        <v>(46,12,date_sub(curdate(), INTERVAL 127 DAY),76.6),</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,17 +10273,17 @@
         <v>46</v>
       </c>
       <c r="C185">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E185" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="2"/>
-        <v>(46,17,date_sub(curdate(), INTERVAL 127 DAY),76.6),</v>
+        <f>"("&amp;B185&amp;","&amp;C185&amp;","&amp;D185&amp;","&amp;E185&amp;"),"</f>
+        <v>(46,18,date_sub(curdate(), INTERVAL 129 DAY),100.6),</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -10296,17 +10294,17 @@
         <v>47</v>
       </c>
       <c r="C186">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E186" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="2"/>
-        <v>(47,17,date_sub(curdate(), INTERVAL 128 DAY),1142.5),</v>
+        <f>"("&amp;B186&amp;","&amp;C186&amp;","&amp;D186&amp;","&amp;E186&amp;"),"</f>
+        <v>(47,11,date_sub(curdate(), INTERVAL 127 DAY),938.7),</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -10317,17 +10315,17 @@
         <v>47</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E187" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="2"/>
-        <v>(47,14,date_sub(curdate(), INTERVAL 127 DAY),938.7),</v>
+        <f>"("&amp;B187&amp;","&amp;C187&amp;","&amp;D187&amp;","&amp;E187&amp;"),"</f>
+        <v>(47,18,date_sub(curdate(), INTERVAL 128 DAY),1142.5),</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -10338,7 +10336,7 @@
         <v>47</v>
       </c>
       <c r="C188">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D188" t="s">
         <v>290</v>
@@ -10347,8 +10345,8 @@
         <v>533</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="2"/>
-        <v>(47,16,date_sub(curdate(), INTERVAL 128 DAY),1070.4),</v>
+        <f>"("&amp;B188&amp;","&amp;C188&amp;","&amp;D188&amp;","&amp;E188&amp;"),"</f>
+        <v>(47,12,date_sub(curdate(), INTERVAL 128 DAY),1070.4),</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -10359,7 +10357,7 @@
         <v>47</v>
       </c>
       <c r="C189">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
         <v>285</v>
@@ -10368,8 +10366,8 @@
         <v>534</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="2"/>
-        <v>(47,17,date_sub(curdate(), INTERVAL 130 DAY),927.5),</v>
+        <f>"("&amp;B189&amp;","&amp;C189&amp;","&amp;D189&amp;","&amp;E189&amp;"),"</f>
+        <v>(47,15,date_sub(curdate(), INTERVAL 130 DAY),927.5),</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -10380,17 +10378,17 @@
         <v>48</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E190" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="2"/>
-        <v>(48,10,date_sub(curdate(), INTERVAL 130 DAY),47.4),</v>
+        <f>"("&amp;B190&amp;","&amp;C190&amp;","&amp;D190&amp;","&amp;E190&amp;"),"</f>
+        <v>(48,17,date_sub(curdate(), INTERVAL 124 DAY),40.7),</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -10401,17 +10399,17 @@
         <v>48</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E191" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="2"/>
-        <v>(48,14,date_sub(curdate(), INTERVAL 124 DAY),40.7),</v>
+        <f>"("&amp;B191&amp;","&amp;C191&amp;","&amp;D191&amp;","&amp;E191&amp;"),"</f>
+        <v>(48,15,date_sub(curdate(), INTERVAL 130 DAY),47.4),</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -10422,7 +10420,7 @@
         <v>48</v>
       </c>
       <c r="C192">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D192" t="s">
         <v>295</v>
@@ -10431,8 +10429,8 @@
         <v>371</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="2"/>
-        <v>(48,16,date_sub(curdate(), INTERVAL 131 DAY),40.1),</v>
+        <f>"("&amp;B192&amp;","&amp;C192&amp;","&amp;D192&amp;","&amp;E192&amp;"),"</f>
+        <v>(48,18,date_sub(curdate(), INTERVAL 131 DAY),40.1),</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -10443,7 +10441,7 @@
         <v>48</v>
       </c>
       <c r="C193">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D193" t="s">
         <v>295</v>
@@ -10452,8 +10450,8 @@
         <v>537</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="2"/>
-        <v>(48,17,date_sub(curdate(), INTERVAL 131 DAY),42.2),</v>
+        <f>"("&amp;B193&amp;","&amp;C193&amp;","&amp;D193&amp;","&amp;E193&amp;"),"</f>
+        <v>(48,11,date_sub(curdate(), INTERVAL 131 DAY),42.2),</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -10464,17 +10462,17 @@
         <v>49</v>
       </c>
       <c r="C194">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E194" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="2"/>
-        <v>(49,17,date_sub(curdate(), INTERVAL 106 DAY),3958.5),</v>
+        <f>"("&amp;B194&amp;","&amp;C194&amp;","&amp;D194&amp;","&amp;E194&amp;"),"</f>
+        <v>(49,8,date_sub(curdate(), INTERVAL 103 DAY),4588.8),</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,17 +10483,17 @@
         <v>49</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E195" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F258" si="3">"("&amp;B195&amp;","&amp;C195&amp;","&amp;D195&amp;","&amp;E195&amp;"),"</f>
-        <v>(49,3,date_sub(curdate(), INTERVAL 103 DAY),4588.8),</v>
+        <f>"("&amp;B195&amp;","&amp;C195&amp;","&amp;D195&amp;","&amp;E195&amp;"),"</f>
+        <v>(49,7,date_sub(curdate(), INTERVAL 106 DAY),3958.5),</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -10506,7 +10504,7 @@
         <v>49</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D196" t="s">
         <v>298</v>
@@ -10515,8 +10513,8 @@
         <v>540</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="3"/>
-        <v>(49,6,date_sub(curdate(), INTERVAL 109 DAY),4167.4),</v>
+        <f>"("&amp;B196&amp;","&amp;C196&amp;","&amp;D196&amp;","&amp;E196&amp;"),"</f>
+        <v>(49,4,date_sub(curdate(), INTERVAL 109 DAY),4167.4),</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -10536,7 +10534,7 @@
         <v>541</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="3"/>
+        <f>"("&amp;B197&amp;","&amp;C197&amp;","&amp;D197&amp;","&amp;E197&amp;"),"</f>
         <v>(49,7,date_sub(curdate(), INTERVAL 113 DAY),4631.7),</v>
       </c>
     </row>
@@ -10548,7 +10546,7 @@
         <v>50</v>
       </c>
       <c r="C198">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D198" t="s">
         <v>300</v>
@@ -10557,8 +10555,8 @@
         <v>542</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="3"/>
-        <v>(50,16,date_sub(curdate(), INTERVAL 105 DAY),2035.4),</v>
+        <f>"("&amp;B198&amp;","&amp;C198&amp;","&amp;D198&amp;","&amp;E198&amp;"),"</f>
+        <v>(50,8,date_sub(curdate(), INTERVAL 105 DAY),2035.4),</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -10569,17 +10567,17 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E199" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="3"/>
-        <v>(50,17,date_sub(curdate(), INTERVAL 113 DAY),2352.6),</v>
+        <f>"("&amp;B199&amp;","&amp;C199&amp;","&amp;D199&amp;","&amp;E199&amp;"),"</f>
+        <v>(50,7,date_sub(curdate(), INTERVAL 109 DAY),1910.4),</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -10590,17 +10588,17 @@
         <v>50</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E200" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="3"/>
-        <v>(50,3,date_sub(curdate(), INTERVAL 109 DAY),1910.4),</v>
+        <f>"("&amp;B200&amp;","&amp;C200&amp;","&amp;D200&amp;","&amp;E200&amp;"),"</f>
+        <v>(50,4,date_sub(curdate(), INTERVAL 113 DAY),2352.6),</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -10611,7 +10609,7 @@
         <v>50</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D201" t="s">
         <v>301</v>
@@ -10620,8 +10618,8 @@
         <v>545</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="3"/>
-        <v>(50,6,date_sub(curdate(), INTERVAL 114 DAY),2082.2),</v>
+        <f>"("&amp;B201&amp;","&amp;C201&amp;","&amp;D201&amp;","&amp;E201&amp;"),"</f>
+        <v>(50,8,date_sub(curdate(), INTERVAL 114 DAY),2082.2),</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -10632,17 +10630,17 @@
         <v>51</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>298</v>
-      </c>
-      <c r="E202">
-        <v>424</v>
+        <v>297</v>
+      </c>
+      <c r="E202" t="s">
+        <v>548</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="3"/>
-        <v>(51,11,date_sub(curdate(), INTERVAL 109 DAY),424),</v>
+        <f>"("&amp;B202&amp;","&amp;C202&amp;","&amp;D202&amp;","&amp;E202&amp;"),"</f>
+        <v>(51,17,date_sub(curdate(), INTERVAL 103 DAY),500.8),</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -10653,17 +10651,17 @@
         <v>51</v>
       </c>
       <c r="C203">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E203" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="3"/>
-        <v>(51,14,date_sub(curdate(), INTERVAL 113 DAY),492.1),</v>
+        <f>"("&amp;B203&amp;","&amp;C203&amp;","&amp;D203&amp;","&amp;E203&amp;"),"</f>
+        <v>(51,15,date_sub(curdate(), INTERVAL 106 DAY),499.6),</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -10674,17 +10672,17 @@
         <v>51</v>
       </c>
       <c r="C204">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>296</v>
-      </c>
-      <c r="E204" t="s">
-        <v>547</v>
+        <v>298</v>
+      </c>
+      <c r="E204">
+        <v>424</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="3"/>
-        <v>(51,16,date_sub(curdate(), INTERVAL 106 DAY),499.6),</v>
+        <f>"("&amp;B204&amp;","&amp;C204&amp;","&amp;D204&amp;","&amp;E204&amp;"),"</f>
+        <v>(51,11,date_sub(curdate(), INTERVAL 109 DAY),424),</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -10695,17 +10693,17 @@
         <v>51</v>
       </c>
       <c r="C205">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E205" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="3"/>
-        <v>(51,17,date_sub(curdate(), INTERVAL 103 DAY),500.8),</v>
+        <f>"("&amp;B205&amp;","&amp;C205&amp;","&amp;D205&amp;","&amp;E205&amp;"),"</f>
+        <v>(51,12,date_sub(curdate(), INTERVAL 113 DAY),492.1),</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -10716,17 +10714,17 @@
         <v>52</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E206" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="3"/>
-        <v>(52,7,date_sub(curdate(), INTERVAL 111 DAY),2976.1),</v>
+        <f>"("&amp;B206&amp;","&amp;C206&amp;","&amp;D206&amp;","&amp;E206&amp;"),"</f>
+        <v>(52,8,date_sub(curdate(), INTERVAL 104 DAY),2867.5),</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -10737,17 +10735,17 @@
         <v>52</v>
       </c>
       <c r="C207">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E207" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="3"/>
-        <v>(52,16,date_sub(curdate(), INTERVAL 112 DAY),2117.8),</v>
+        <f>"("&amp;B207&amp;","&amp;C207&amp;","&amp;D207&amp;","&amp;E207&amp;"),"</f>
+        <v>(52,4,date_sub(curdate(), INTERVAL 108 DAY),2397.3),</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -10758,17 +10756,17 @@
         <v>52</v>
       </c>
       <c r="C208">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D208" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E208" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="3"/>
-        <v>(52,17,date_sub(curdate(), INTERVAL 104 DAY),2867.5),</v>
+        <f>"("&amp;B208&amp;","&amp;C208&amp;","&amp;D208&amp;","&amp;E208&amp;"),"</f>
+        <v>(52,4,date_sub(curdate(), INTERVAL 111 DAY),2976.1),</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -10779,17 +10777,17 @@
         <v>52</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E209" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="3"/>
-        <v>(52,3,date_sub(curdate(), INTERVAL 108 DAY),2397.3),</v>
+        <f>"("&amp;B209&amp;","&amp;C209&amp;","&amp;D209&amp;","&amp;E209&amp;"),"</f>
+        <v>(52,7,date_sub(curdate(), INTERVAL 112 DAY),2117.8),</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -10800,17 +10798,17 @@
         <v>53</v>
       </c>
       <c r="C210">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E210" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="3"/>
-        <v>(53,6,date_sub(curdate(), INTERVAL 93 DAY),37184.6),</v>
+        <f>"("&amp;B210&amp;","&amp;C210&amp;","&amp;D210&amp;","&amp;E210&amp;"),"</f>
+        <v>(53,4,date_sub(curdate(), INTERVAL 86 DAY),45991.1),</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -10821,17 +10819,17 @@
         <v>53</v>
       </c>
       <c r="C211">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E211" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="3"/>
-        <v>(53,7,date_sub(curdate(), INTERVAL 86 DAY),45991.1),</v>
+        <f>"("&amp;B211&amp;","&amp;C211&amp;","&amp;D211&amp;","&amp;E211&amp;"),"</f>
+        <v>(53,8,date_sub(curdate(), INTERVAL 93 DAY),37184.6),</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -10842,17 +10840,17 @@
         <v>53</v>
       </c>
       <c r="C212">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E212" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="3"/>
-        <v>(53,16,date_sub(curdate(), INTERVAL 96 DAY),37346.9),</v>
+        <f>"("&amp;B212&amp;","&amp;C212&amp;","&amp;D212&amp;","&amp;E212&amp;"),"</f>
+        <v>(53,8,date_sub(curdate(), INTERVAL 95 DAY),40257.5),</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -10863,17 +10861,17 @@
         <v>53</v>
       </c>
       <c r="C213">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E213" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="3"/>
-        <v>(53,17,date_sub(curdate(), INTERVAL 95 DAY),40257.5),</v>
+        <f>"("&amp;B213&amp;","&amp;C213&amp;","&amp;D213&amp;","&amp;E213&amp;"),"</f>
+        <v>(53,7,date_sub(curdate(), INTERVAL 96 DAY),37346.9),</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -10884,7 +10882,7 @@
         <v>54</v>
       </c>
       <c r="C214">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D214" t="s">
         <v>310</v>
@@ -10893,8 +10891,8 @@
         <v>557</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="3"/>
-        <v>(54,10,date_sub(curdate(), INTERVAL 87 DAY),1091.1),</v>
+        <f>"("&amp;B214&amp;","&amp;C214&amp;","&amp;D214&amp;","&amp;E214&amp;"),"</f>
+        <v>(54,12,date_sub(curdate(), INTERVAL 87 DAY),1091.1),</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -10905,7 +10903,7 @@
         <v>54</v>
       </c>
       <c r="C215">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D215" t="s">
         <v>310</v>
@@ -10914,8 +10912,8 @@
         <v>558</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="3"/>
-        <v>(54,14,date_sub(curdate(), INTERVAL 87 DAY),1182.4),</v>
+        <f>"("&amp;B215&amp;","&amp;C215&amp;","&amp;D215&amp;","&amp;E215&amp;"),"</f>
+        <v>(54,15,date_sub(curdate(), INTERVAL 87 DAY),1182.4),</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -10926,17 +10924,17 @@
         <v>54</v>
       </c>
       <c r="C216">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E216" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="3"/>
-        <v>(54,16,date_sub(curdate(), INTERVAL 98 DAY),1179.8),</v>
+        <f>"("&amp;B216&amp;","&amp;C216&amp;","&amp;D216&amp;","&amp;E216&amp;"),"</f>
+        <v>(54,18,date_sub(curdate(), INTERVAL 95 DAY),1174.2),</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -10950,14 +10948,14 @@
         <v>17</v>
       </c>
       <c r="D217" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E217" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="3"/>
-        <v>(54,17,date_sub(curdate(), INTERVAL 95 DAY),1174.2),</v>
+        <f>"("&amp;B217&amp;","&amp;C217&amp;","&amp;D217&amp;","&amp;E217&amp;"),"</f>
+        <v>(54,17,date_sub(curdate(), INTERVAL 98 DAY),1179.8),</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -10968,17 +10966,17 @@
         <v>55</v>
       </c>
       <c r="C218">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E218" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="3"/>
-        <v>(55,10,date_sub(curdate(), INTERVAL 94 DAY),1954.9),</v>
+        <f>"("&amp;B218&amp;","&amp;C218&amp;","&amp;D218&amp;","&amp;E218&amp;"),"</f>
+        <v>(55,12,date_sub(curdate(), INTERVAL 86 DAY),1888.7),</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -10989,17 +10987,17 @@
         <v>55</v>
       </c>
       <c r="C219">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D219" t="s">
         <v>307</v>
       </c>
-      <c r="E219" t="s">
-        <v>562</v>
+      <c r="E219">
+        <v>1611</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="3"/>
-        <v>(55,14,date_sub(curdate(), INTERVAL 86 DAY),1888.7),</v>
+        <f>"("&amp;B219&amp;","&amp;C219&amp;","&amp;D219&amp;","&amp;E219&amp;"),"</f>
+        <v>(55,17,date_sub(curdate(), INTERVAL 86 DAY),1611),</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -11010,7 +11008,7 @@
         <v>55</v>
       </c>
       <c r="C220">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D220" t="s">
         <v>313</v>
@@ -11019,8 +11017,8 @@
         <v>563</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="3"/>
-        <v>(55,16,date_sub(curdate(), INTERVAL 90 DAY),1977.4),</v>
+        <f>"("&amp;B220&amp;","&amp;C220&amp;","&amp;D220&amp;","&amp;E220&amp;"),"</f>
+        <v>(55,15,date_sub(curdate(), INTERVAL 90 DAY),1977.4),</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -11031,17 +11029,17 @@
         <v>55</v>
       </c>
       <c r="C221">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>307</v>
-      </c>
-      <c r="E221">
-        <v>1611</v>
+        <v>312</v>
+      </c>
+      <c r="E221" t="s">
+        <v>561</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="3"/>
-        <v>(55,17,date_sub(curdate(), INTERVAL 86 DAY),1611),</v>
+        <f>"("&amp;B221&amp;","&amp;C221&amp;","&amp;D221&amp;","&amp;E221&amp;"),"</f>
+        <v>(55,11,date_sub(curdate(), INTERVAL 94 DAY),1954.9),</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -11052,7 +11050,7 @@
         <v>56</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D222" t="s">
         <v>310</v>
@@ -11061,8 +11059,8 @@
         <v>564</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="3"/>
-        <v>(56,10,date_sub(curdate(), INTERVAL 87 DAY),1448.5),</v>
+        <f>"("&amp;B222&amp;","&amp;C222&amp;","&amp;D222&amp;","&amp;E222&amp;"),"</f>
+        <v>(56,18,date_sub(curdate(), INTERVAL 87 DAY),1448.5),</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -11073,17 +11071,17 @@
         <v>56</v>
       </c>
       <c r="C223">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E223" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="3"/>
-        <v>(56,14,date_sub(curdate(), INTERVAL 93 DAY),1886.5),</v>
+        <f>"("&amp;B223&amp;","&amp;C223&amp;","&amp;D223&amp;","&amp;E223&amp;"),"</f>
+        <v>(56,15,date_sub(curdate(), INTERVAL 88 DAY),1578.6),</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -11094,17 +11092,17 @@
         <v>56</v>
       </c>
       <c r="C224">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D224" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E224" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="3"/>
-        <v>(56,16,date_sub(curdate(), INTERVAL 98 DAY),1434.2),</v>
+        <f>"("&amp;B224&amp;","&amp;C224&amp;","&amp;D224&amp;","&amp;E224&amp;"),"</f>
+        <v>(56,11,date_sub(curdate(), INTERVAL 93 DAY),1886.5),</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -11115,17 +11113,17 @@
         <v>56</v>
       </c>
       <c r="C225">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E225" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="3"/>
-        <v>(56,17,date_sub(curdate(), INTERVAL 88 DAY),1578.6),</v>
+        <f>"("&amp;B225&amp;","&amp;C225&amp;","&amp;D225&amp;","&amp;E225&amp;"),"</f>
+        <v>(56,12,date_sub(curdate(), INTERVAL 98 DAY),1434.2),</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -11136,17 +11134,17 @@
         <v>57</v>
       </c>
       <c r="C226">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D226" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E226" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="3"/>
-        <v>(57,14,date_sub(curdate(), INTERVAL 74 DAY),257.6),</v>
+        <f>"("&amp;B226&amp;","&amp;C226&amp;","&amp;D226&amp;","&amp;E226&amp;"),"</f>
+        <v>(57,18,date_sub(curdate(), INTERVAL 70 DAY),266.5),</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -11157,17 +11155,17 @@
         <v>57</v>
       </c>
       <c r="C227">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D227" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E227" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="3"/>
-        <v>(57,16,date_sub(curdate(), INTERVAL 70 DAY),266.5),</v>
+        <f>"("&amp;B227&amp;","&amp;C227&amp;","&amp;D227&amp;","&amp;E227&amp;"),"</f>
+        <v>(57,17,date_sub(curdate(), INTERVAL 74 DAY),257.6),</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -11178,17 +11176,17 @@
         <v>57</v>
       </c>
       <c r="C228">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E228" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="3"/>
-        <v>(57,17,date_sub(curdate(), INTERVAL 82 DAY),274.1),</v>
+        <f>"("&amp;B228&amp;","&amp;C228&amp;","&amp;D228&amp;","&amp;E228&amp;"),"</f>
+        <v>(57,12,date_sub(curdate(), INTERVAL 76 DAY),282.1),</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -11199,17 +11197,17 @@
         <v>57</v>
       </c>
       <c r="C229">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E229" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="3"/>
-        <v>(57,14,date_sub(curdate(), INTERVAL 76 DAY),282.1),</v>
+        <f>"("&amp;B229&amp;","&amp;C229&amp;","&amp;D229&amp;","&amp;E229&amp;"),"</f>
+        <v>(57,11,date_sub(curdate(), INTERVAL 82 DAY),274.1),</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -11220,17 +11218,17 @@
         <v>58</v>
       </c>
       <c r="C230">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E230" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="3"/>
-        <v>(58,16,date_sub(curdate(), INTERVAL 72 DAY),1211.1),</v>
+        <f>"("&amp;B230&amp;","&amp;C230&amp;","&amp;D230&amp;","&amp;E230&amp;"),"</f>
+        <v>(58,17,date_sub(curdate(), INTERVAL 69 DAY),1236.6),</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -11241,17 +11239,17 @@
         <v>58</v>
       </c>
       <c r="C231">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
         <v>320</v>
       </c>
       <c r="E231" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="3"/>
-        <v>(58,17,date_sub(curdate(), INTERVAL 69 DAY),1236.6),</v>
+        <f>"("&amp;B231&amp;","&amp;C231&amp;","&amp;D231&amp;","&amp;E231&amp;"),"</f>
+        <v>(58,18,date_sub(curdate(), INTERVAL 69 DAY),1361.1),</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -11262,17 +11260,17 @@
         <v>58</v>
       </c>
       <c r="C232">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D232" t="s">
-        <v>320</v>
-      </c>
-      <c r="E232" t="s">
-        <v>574</v>
+        <v>321</v>
+      </c>
+      <c r="E232">
+        <v>1154</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="3"/>
-        <v>(58,14,date_sub(curdate(), INTERVAL 69 DAY),1361.1),</v>
+        <f>"("&amp;B232&amp;","&amp;C232&amp;","&amp;D232&amp;","&amp;E232&amp;"),"</f>
+        <v>(58,11,date_sub(curdate(), INTERVAL 71 DAY),1154),</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -11283,17 +11281,17 @@
         <v>58</v>
       </c>
       <c r="C233">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>321</v>
-      </c>
-      <c r="E233">
-        <v>1154</v>
+        <v>319</v>
+      </c>
+      <c r="E233" t="s">
+        <v>572</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="3"/>
-        <v>(58,16,date_sub(curdate(), INTERVAL 71 DAY),1154),</v>
+        <f>"("&amp;B233&amp;","&amp;C233&amp;","&amp;D233&amp;","&amp;E233&amp;"),"</f>
+        <v>(58,15,date_sub(curdate(), INTERVAL 72 DAY),1211.1),</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -11304,7 +11302,7 @@
         <v>59</v>
       </c>
       <c r="C234">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D234" t="s">
         <v>322</v>
@@ -11313,8 +11311,8 @@
         <v>2143</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="3"/>
-        <v>(59,10,date_sub(curdate(), INTERVAL 73 DAY),2143),</v>
+        <f>"("&amp;B234&amp;","&amp;C234&amp;","&amp;D234&amp;","&amp;E234&amp;"),"</f>
+        <v>(59,17,date_sub(curdate(), INTERVAL 73 DAY),2143),</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -11325,17 +11323,17 @@
         <v>59</v>
       </c>
       <c r="C235">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D235" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E235" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="3"/>
-        <v>(59,14,date_sub(curdate(), INTERVAL 79 DAY),2433.2),</v>
+        <f>"("&amp;B235&amp;","&amp;C235&amp;","&amp;D235&amp;","&amp;E235&amp;"),"</f>
+        <v>(59,11,date_sub(curdate(), INTERVAL 74 DAY),1986.2),</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -11346,17 +11344,17 @@
         <v>59</v>
       </c>
       <c r="C236">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E236" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="3"/>
-        <v>(59,16,date_sub(curdate(), INTERVAL 74 DAY),1986.2),</v>
+        <f>"("&amp;B236&amp;","&amp;C236&amp;","&amp;D236&amp;","&amp;E236&amp;"),"</f>
+        <v>(59,12,date_sub(curdate(), INTERVAL 78 DAY),2097.2),</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -11367,17 +11365,17 @@
         <v>59</v>
       </c>
       <c r="C237">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E237" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="3"/>
-        <v>(59,17,date_sub(curdate(), INTERVAL 78 DAY),2097.2),</v>
+        <f>"("&amp;B237&amp;","&amp;C237&amp;","&amp;D237&amp;","&amp;E237&amp;"),"</f>
+        <v>(59,18,date_sub(curdate(), INTERVAL 79 DAY),2433.2),</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -11388,17 +11386,17 @@
         <v>60</v>
       </c>
       <c r="C238">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E238" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="3"/>
-        <v>(60,14,date_sub(curdate(), INTERVAL 75 DAY),196.9),</v>
+        <f>"("&amp;B238&amp;","&amp;C238&amp;","&amp;D238&amp;","&amp;E238&amp;"),"</f>
+        <v>(60,16,date_sub(curdate(), INTERVAL 72 DAY),192.2),</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -11409,17 +11407,17 @@
         <v>60</v>
       </c>
       <c r="C239">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>319</v>
-      </c>
-      <c r="E239" t="s">
-        <v>579</v>
+        <v>315</v>
+      </c>
+      <c r="E239">
+        <v>173</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="3"/>
-        <v>(60,15,date_sub(curdate(), INTERVAL 72 DAY),192.2),</v>
+        <f>"("&amp;B239&amp;","&amp;C239&amp;","&amp;D239&amp;","&amp;E239&amp;"),"</f>
+        <v>(60,19,date_sub(curdate(), INTERVAL 74 DAY),173),</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -11430,17 +11428,17 @@
         <v>60</v>
       </c>
       <c r="C240">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D240" t="s">
-        <v>315</v>
-      </c>
-      <c r="E240">
-        <v>173</v>
+        <v>325</v>
+      </c>
+      <c r="E240" t="s">
+        <v>578</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="3"/>
-        <v>(60,18,date_sub(curdate(), INTERVAL 74 DAY),173),</v>
+        <f>"("&amp;B240&amp;","&amp;C240&amp;","&amp;D240&amp;","&amp;E240&amp;"),"</f>
+        <v>(60,11,date_sub(curdate(), INTERVAL 75 DAY),196.9),</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -11451,7 +11449,7 @@
         <v>60</v>
       </c>
       <c r="C241">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D241" t="s">
         <v>323</v>
@@ -11460,8 +11458,8 @@
         <v>524</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="3"/>
-        <v>(60,14,date_sub(curdate(), INTERVAL 79 DAY),197.3),</v>
+        <f>"("&amp;B241&amp;","&amp;C241&amp;","&amp;D241&amp;","&amp;E241&amp;"),"</f>
+        <v>(60,11,date_sub(curdate(), INTERVAL 79 DAY),197.3),</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -11472,17 +11470,17 @@
         <v>61</v>
       </c>
       <c r="C242">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E242" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="3"/>
-        <v>(61,15,date_sub(curdate(), INTERVAL 60 DAY),190.8),</v>
+        <f>"("&amp;B242&amp;","&amp;C242&amp;","&amp;D242&amp;","&amp;E242&amp;"),"</f>
+        <v>(61,19,date_sub(curdate(), INTERVAL 59 DAY),193.9),</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -11493,17 +11491,17 @@
         <v>61</v>
       </c>
       <c r="C243">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E243" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="3"/>
-        <v>(61,18,date_sub(curdate(), INTERVAL 59 DAY),193.9),</v>
+        <f>"("&amp;B243&amp;","&amp;C243&amp;","&amp;D243&amp;","&amp;E243&amp;"),"</f>
+        <v>(61,16,date_sub(curdate(), INTERVAL 60 DAY),190.8),</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -11514,17 +11512,17 @@
         <v>61</v>
       </c>
       <c r="C244">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E244" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="3"/>
-        <v>(61,14,date_sub(curdate(), INTERVAL 66 DAY),183.4),</v>
+        <f>"("&amp;B244&amp;","&amp;C244&amp;","&amp;D244&amp;","&amp;E244&amp;"),"</f>
+        <v>(61,16,date_sub(curdate(), INTERVAL 65 DAY),183.8),</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -11535,17 +11533,17 @@
         <v>61</v>
       </c>
       <c r="C245">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D245" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E245" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="3"/>
-        <v>(61,15,date_sub(curdate(), INTERVAL 65 DAY),183.8),</v>
+        <f>"("&amp;B245&amp;","&amp;C245&amp;","&amp;D245&amp;","&amp;E245&amp;"),"</f>
+        <v>(61,11,date_sub(curdate(), INTERVAL 66 DAY),183.4),</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -11556,17 +11554,17 @@
         <v>62</v>
       </c>
       <c r="C246">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D246" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E246" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="3"/>
-        <v>(62,10,date_sub(curdate(), INTERVAL 69 DAY),79.4),</v>
+        <f>"("&amp;B246&amp;","&amp;C246&amp;","&amp;D246&amp;","&amp;E246&amp;"),"</f>
+        <v>(62,11,date_sub(curdate(), INTERVAL 64 DAY),86.8),</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -11577,17 +11575,17 @@
         <v>62</v>
       </c>
       <c r="C247">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E247" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="3"/>
-        <v>(62,14,date_sub(curdate(), INTERVAL 71 DAY),85.6),</v>
+        <f>"("&amp;B247&amp;","&amp;C247&amp;","&amp;D247&amp;","&amp;E247&amp;"),"</f>
+        <v>(62,15,date_sub(curdate(), INTERVAL 69 DAY),79.4),</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -11598,7 +11596,7 @@
         <v>62</v>
       </c>
       <c r="C248">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D248" t="s">
         <v>320</v>
@@ -11607,8 +11605,8 @@
         <v>586</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="3"/>
-        <v>(62,16,date_sub(curdate(), INTERVAL 69 DAY),84.5),</v>
+        <f>"("&amp;B248&amp;","&amp;C248&amp;","&amp;D248&amp;","&amp;E248&amp;"),"</f>
+        <v>(62,18,date_sub(curdate(), INTERVAL 69 DAY),84.5),</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -11622,14 +11620,14 @@
         <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E249" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="3"/>
-        <v>(62,17,date_sub(curdate(), INTERVAL 64 DAY),86.8),</v>
+        <f>"("&amp;B249&amp;","&amp;C249&amp;","&amp;D249&amp;","&amp;E249&amp;"),"</f>
+        <v>(62,17,date_sub(curdate(), INTERVAL 71 DAY),85.6),</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -11640,17 +11638,17 @@
         <v>63</v>
       </c>
       <c r="C250">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D250" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E250" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="3"/>
-        <v>(63,11,date_sub(curdate(), INTERVAL 61 DAY),552.1),</v>
+        <f>"("&amp;B250&amp;","&amp;C250&amp;","&amp;D250&amp;","&amp;E250&amp;"),"</f>
+        <v>(63,17,date_sub(curdate(), INTERVAL 60 DAY),577.2),</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -11661,17 +11659,17 @@
         <v>63</v>
       </c>
       <c r="C251">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D251" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E251" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="3"/>
-        <v>(63,14,date_sub(curdate(), INTERVAL 65 DAY),551.3),</v>
+        <f>"("&amp;B251&amp;","&amp;C251&amp;","&amp;D251&amp;","&amp;E251&amp;"),"</f>
+        <v>(63,11,date_sub(curdate(), INTERVAL 61 DAY),552.1),</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -11682,17 +11680,17 @@
         <v>63</v>
       </c>
       <c r="C252">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E252" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="3"/>
-        <v>(63,16,date_sub(curdate(), INTERVAL 69 DAY),570.8),</v>
+        <f>"("&amp;B252&amp;","&amp;C252&amp;","&amp;D252&amp;","&amp;E252&amp;"),"</f>
+        <v>(63,12,date_sub(curdate(), INTERVAL 65 DAY),551.3),</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -11703,17 +11701,17 @@
         <v>63</v>
       </c>
       <c r="C253">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E253" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="3"/>
-        <v>(63,17,date_sub(curdate(), INTERVAL 60 DAY),577.2),</v>
+        <f>"("&amp;B253&amp;","&amp;C253&amp;","&amp;D253&amp;","&amp;E253&amp;"),"</f>
+        <v>(63,15,date_sub(curdate(), INTERVAL 69 DAY),570.8),</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -11724,17 +11722,17 @@
         <v>64</v>
       </c>
       <c r="C254">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D254" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E254" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="3"/>
-        <v>(64,17,date_sub(curdate(), INTERVAL 64 DAY),17.1),</v>
+        <f>"("&amp;B254&amp;","&amp;C254&amp;","&amp;D254&amp;","&amp;E254&amp;"),"</f>
+        <v>(64,18,date_sub(curdate(), INTERVAL 60 DAY),19.6),</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -11745,17 +11743,17 @@
         <v>64</v>
       </c>
       <c r="C255">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E255" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F255" t="str">
-        <f t="shared" si="3"/>
-        <v>(64,14,date_sub(curdate(), INTERVAL 67 DAY),15.1),</v>
+        <f>"("&amp;B255&amp;","&amp;C255&amp;","&amp;D255&amp;","&amp;E255&amp;"),"</f>
+        <v>(64,12,date_sub(curdate(), INTERVAL 64 DAY),17.1),</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -11766,7 +11764,7 @@
         <v>64</v>
       </c>
       <c r="C256">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D256" t="s">
         <v>330</v>
@@ -11775,8 +11773,8 @@
         <v>594</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="3"/>
-        <v>(64,16,date_sub(curdate(), INTERVAL 64 DAY),14.7),</v>
+        <f>"("&amp;B256&amp;","&amp;C256&amp;","&amp;D256&amp;","&amp;E256&amp;"),"</f>
+        <v>(64,17,date_sub(curdate(), INTERVAL 64 DAY),14.7),</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -11787,17 +11785,17 @@
         <v>64</v>
       </c>
       <c r="C257">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E257" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="3"/>
-        <v>(64,17,date_sub(curdate(), INTERVAL 60 DAY),19.6),</v>
+        <f>"("&amp;B257&amp;","&amp;C257&amp;","&amp;D257&amp;","&amp;E257&amp;"),"</f>
+        <v>(64,15,date_sub(curdate(), INTERVAL 67 DAY),15.1),</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -11808,17 +11806,17 @@
         <v>65</v>
       </c>
       <c r="C258">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E258" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="3"/>
-        <v>(65,10,date_sub(curdate(), INTERVAL 49 DAY),38.1),</v>
+        <f>"("&amp;B258&amp;","&amp;C258&amp;","&amp;D258&amp;","&amp;E258&amp;"),"</f>
+        <v>(65,15,date_sub(curdate(), INTERVAL 46 DAY),46.2),</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -11829,17 +11827,17 @@
         <v>65</v>
       </c>
       <c r="C259">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E259" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" ref="F259:F322" si="4">"("&amp;B259&amp;","&amp;C259&amp;","&amp;D259&amp;","&amp;E259&amp;"),"</f>
-        <v>(65,14,date_sub(curdate(), INTERVAL 46 DAY),46.2),</v>
+        <f>"("&amp;B259&amp;","&amp;C259&amp;","&amp;D259&amp;","&amp;E259&amp;"),"</f>
+        <v>(65,12,date_sub(curdate(), INTERVAL 49 DAY),38.1),</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -11850,17 +11848,17 @@
         <v>65</v>
       </c>
       <c r="C260">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E260" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="4"/>
-        <v>(65,16,date_sub(curdate(), INTERVAL 51 DAY),49.6),</v>
+        <f>"("&amp;B260&amp;","&amp;C260&amp;","&amp;D260&amp;","&amp;E260&amp;"),"</f>
+        <v>(65,18,date_sub(curdate(), INTERVAL 49 DAY),37.6),</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -11874,14 +11872,14 @@
         <v>17</v>
       </c>
       <c r="D261" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E261" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="4"/>
-        <v>(65,17,date_sub(curdate(), INTERVAL 49 DAY),37.6),</v>
+        <f>"("&amp;B261&amp;","&amp;C261&amp;","&amp;D261&amp;","&amp;E261&amp;"),"</f>
+        <v>(65,17,date_sub(curdate(), INTERVAL 51 DAY),49.6),</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -11892,17 +11890,17 @@
         <v>66</v>
       </c>
       <c r="C262">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E262" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="4"/>
-        <v>(66,18,date_sub(curdate(), INTERVAL 52 DAY),158.3),</v>
+        <f>"("&amp;B262&amp;","&amp;C262&amp;","&amp;D262&amp;","&amp;E262&amp;"),"</f>
+        <v>(66,16,date_sub(curdate(), INTERVAL 45 DAY),192.4),</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -11913,17 +11911,17 @@
         <v>66</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D263" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E263" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="4"/>
-        <v>(66,14,date_sub(curdate(), INTERVAL 52 DAY),172.7),</v>
+        <f>"("&amp;B263&amp;","&amp;C263&amp;","&amp;D263&amp;","&amp;E263&amp;"),"</f>
+        <v>(66,19,date_sub(curdate(), INTERVAL 45 DAY),173.7),</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -11934,17 +11932,17 @@
         <v>66</v>
       </c>
       <c r="C264">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D264" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E264" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="4"/>
-        <v>(66,15,date_sub(curdate(), INTERVAL 45 DAY),192.4),</v>
+        <f>"("&amp;B264&amp;","&amp;C264&amp;","&amp;D264&amp;","&amp;E264&amp;"),"</f>
+        <v>(66,19,date_sub(curdate(), INTERVAL 52 DAY),158.3),</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -11955,17 +11953,17 @@
         <v>66</v>
       </c>
       <c r="C265">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D265" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E265" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="4"/>
-        <v>(66,18,date_sub(curdate(), INTERVAL 45 DAY),173.7),</v>
+        <f>"("&amp;B265&amp;","&amp;C265&amp;","&amp;D265&amp;","&amp;E265&amp;"),"</f>
+        <v>(66,11,date_sub(curdate(), INTERVAL 52 DAY),172.7),</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -11976,17 +11974,17 @@
         <v>67</v>
       </c>
       <c r="C266">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D266" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E266" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="4"/>
-        <v>(67,11,date_sub(curdate(), INTERVAL 52 DAY),166.6),</v>
+        <f>"("&amp;B266&amp;","&amp;C266&amp;","&amp;D266&amp;","&amp;E266&amp;"),"</f>
+        <v>(67,15,date_sub(curdate(), INTERVAL 46 DAY),156.3),</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -11997,7 +11995,7 @@
         <v>67</v>
       </c>
       <c r="C267">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
         <v>335</v>
@@ -12006,8 +12004,8 @@
         <v>605</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="4"/>
-        <v>(67,16,date_sub(curdate(), INTERVAL 51 DAY),187.8),</v>
+        <f>"("&amp;B267&amp;","&amp;C267&amp;","&amp;D267&amp;","&amp;E267&amp;"),"</f>
+        <v>(67,12,date_sub(curdate(), INTERVAL 51 DAY),187.8),</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -12018,17 +12016,17 @@
         <v>67</v>
       </c>
       <c r="C268">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D268" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E268" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="4"/>
-        <v>(67,17,date_sub(curdate(), INTERVAL 46 DAY),156.3),</v>
+        <f>"("&amp;B268&amp;","&amp;C268&amp;","&amp;D268&amp;","&amp;E268&amp;"),"</f>
+        <v>(67,11,date_sub(curdate(), INTERVAL 52 DAY),166.6),</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -12039,7 +12037,7 @@
         <v>67</v>
       </c>
       <c r="C269">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D269" t="s">
         <v>338</v>
@@ -12048,8 +12046,8 @@
         <v>607</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="4"/>
-        <v>(67,11,date_sub(curdate(), INTERVAL 54 DAY),183.7),</v>
+        <f>"("&amp;B269&amp;","&amp;C269&amp;","&amp;D269&amp;","&amp;E269&amp;"),"</f>
+        <v>(67,17,date_sub(curdate(), INTERVAL 54 DAY),183.7),</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -12060,17 +12058,17 @@
         <v>68</v>
       </c>
       <c r="C270">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E270" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="4"/>
-        <v>(68,4,date_sub(curdate(), INTERVAL 53 DAY),6.8),</v>
+        <f>"("&amp;B270&amp;","&amp;C270&amp;","&amp;D270&amp;","&amp;E270&amp;"),"</f>
+        <v>(68,6,date_sub(curdate(), INTERVAL 46 DAY),7.3),</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -12081,17 +12079,17 @@
         <v>68</v>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D271" t="s">
-        <v>338</v>
-      </c>
-      <c r="E271">
-        <v>5</v>
+        <v>334</v>
+      </c>
+      <c r="E271" t="s">
+        <v>492</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="4"/>
-        <v>(68,5,date_sub(curdate(), INTERVAL 54 DAY),5),</v>
+        <f>"("&amp;B271&amp;","&amp;C271&amp;","&amp;D271&amp;","&amp;E271&amp;"),"</f>
+        <v>(68,11,date_sub(curdate(), INTERVAL 46 DAY),5.4),</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -12102,17 +12100,17 @@
         <v>68</v>
       </c>
       <c r="C272">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D272" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E272" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="4"/>
-        <v>(68,17,date_sub(curdate(), INTERVAL 46 DAY),7.3),</v>
+        <f>"("&amp;B272&amp;","&amp;C272&amp;","&amp;D272&amp;","&amp;E272&amp;"),"</f>
+        <v>(68,11,date_sub(curdate(), INTERVAL 53 DAY),6.8),</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -12123,17 +12121,17 @@
         <v>68</v>
       </c>
       <c r="C273">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>334</v>
-      </c>
-      <c r="E273" t="s">
-        <v>492</v>
+        <v>338</v>
+      </c>
+      <c r="E273">
+        <v>5</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="4"/>
-        <v>(68,17,date_sub(curdate(), INTERVAL 46 DAY),5.4),</v>
+        <f>"("&amp;B273&amp;","&amp;C273&amp;","&amp;D273&amp;","&amp;E273&amp;"),"</f>
+        <v>(68,5,date_sub(curdate(), INTERVAL 54 DAY),5),</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -12144,17 +12142,17 @@
         <v>69</v>
       </c>
       <c r="C274">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E274" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F274" t="str">
-        <f t="shared" si="4"/>
-        <v>(69,14,date_sub(curdate(), INTERVAL 37 DAY),149.5),</v>
+        <f>"("&amp;B274&amp;","&amp;C274&amp;","&amp;D274&amp;","&amp;E274&amp;"),"</f>
+        <v>(69,11,date_sub(curdate(), INTERVAL 31 DAY),176.2),</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -12165,17 +12163,17 @@
         <v>69</v>
       </c>
       <c r="C275">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D275" t="s">
         <v>340</v>
       </c>
       <c r="E275" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F275" t="str">
-        <f t="shared" si="4"/>
-        <v>(69,15,date_sub(curdate(), INTERVAL 37 DAY),172.2),</v>
+        <f>"("&amp;B275&amp;","&amp;C275&amp;","&amp;D275&amp;","&amp;E275&amp;"),"</f>
+        <v>(69,11,date_sub(curdate(), INTERVAL 37 DAY),149.5),</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -12186,17 +12184,17 @@
         <v>69</v>
       </c>
       <c r="C276">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E276" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="4"/>
-        <v>(69,18,date_sub(curdate(), INTERVAL 44 DAY),179.9),</v>
+        <f>"("&amp;B276&amp;","&amp;C276&amp;","&amp;D276&amp;","&amp;E276&amp;"),"</f>
+        <v>(69,16,date_sub(curdate(), INTERVAL 37 DAY),172.2),</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -12207,17 +12205,17 @@
         <v>69</v>
       </c>
       <c r="C277">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D277" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E277" t="s">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="4"/>
-        <v>(69,14,date_sub(curdate(), INTERVAL 31 DAY),176.2),</v>
+        <f>"("&amp;B277&amp;","&amp;C277&amp;","&amp;D277&amp;","&amp;E277&amp;"),"</f>
+        <v>(69,19,date_sub(curdate(), INTERVAL 44 DAY),179.9),</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -12228,17 +12226,17 @@
         <v>70</v>
       </c>
       <c r="C278">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D278" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E278" t="s">
-        <v>613</v>
+        <v>449</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="4"/>
-        <v>(70,11,date_sub(curdate(), INTERVAL 39 DAY),46.1),</v>
+        <f>"("&amp;B278&amp;","&amp;C278&amp;","&amp;D278&amp;","&amp;E278&amp;"),"</f>
+        <v>(70,15,date_sub(curdate(), INTERVAL 36 DAY),41.1),</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -12249,17 +12247,17 @@
         <v>70</v>
       </c>
       <c r="C279">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D279" t="s">
-        <v>344</v>
-      </c>
-      <c r="E279">
-        <v>50</v>
+        <v>343</v>
+      </c>
+      <c r="E279" t="s">
+        <v>613</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="4"/>
-        <v>(70,16,date_sub(curdate(), INTERVAL 43 DAY),50),</v>
+        <f>"("&amp;B279&amp;","&amp;C279&amp;","&amp;D279&amp;","&amp;E279&amp;"),"</f>
+        <v>(70,18,date_sub(curdate(), INTERVAL 39 DAY),46.1),</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -12270,7 +12268,7 @@
         <v>70</v>
       </c>
       <c r="C280">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D280" t="s">
         <v>343</v>
@@ -12279,8 +12277,8 @@
         <v>614</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="4"/>
-        <v>(70,17,date_sub(curdate(), INTERVAL 39 DAY),48.6),</v>
+        <f>"("&amp;B280&amp;","&amp;C280&amp;","&amp;D280&amp;","&amp;E280&amp;"),"</f>
+        <v>(70,12,date_sub(curdate(), INTERVAL 39 DAY),48.6),</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -12294,14 +12292,14 @@
         <v>11</v>
       </c>
       <c r="D281" t="s">
-        <v>345</v>
-      </c>
-      <c r="E281" t="s">
-        <v>449</v>
+        <v>344</v>
+      </c>
+      <c r="E281">
+        <v>50</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="4"/>
-        <v>(70,11,date_sub(curdate(), INTERVAL 36 DAY),41.1),</v>
+        <f>"("&amp;B281&amp;","&amp;C281&amp;","&amp;D281&amp;","&amp;E281&amp;"),"</f>
+        <v>(70,11,date_sub(curdate(), INTERVAL 43 DAY),50),</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -12321,7 +12319,7 @@
         <v>615</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="4"/>
+        <f>"("&amp;B282&amp;","&amp;C282&amp;","&amp;D282&amp;","&amp;E282&amp;"),"</f>
         <v>(71,11,date_sub(curdate(), INTERVAL 34 DAY),1076.1),</v>
       </c>
     </row>
@@ -12333,17 +12331,17 @@
         <v>71</v>
       </c>
       <c r="C283">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D283" t="s">
-        <v>347</v>
-      </c>
-      <c r="E283">
-        <v>1121</v>
+        <v>346</v>
+      </c>
+      <c r="E283" t="s">
+        <v>617</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" si="4"/>
-        <v>(71,14,date_sub(curdate(), INTERVAL 42 DAY),1121),</v>
+        <f>"("&amp;B283&amp;","&amp;C283&amp;","&amp;D283&amp;","&amp;E283&amp;"),"</f>
+        <v>(71,17,date_sub(curdate(), INTERVAL 34 DAY),1137.4),</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -12354,7 +12352,7 @@
         <v>71</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D284" t="s">
         <v>340</v>
@@ -12363,8 +12361,8 @@
         <v>616</v>
       </c>
       <c r="F284" t="str">
-        <f t="shared" si="4"/>
-        <v>(71,16,date_sub(curdate(), INTERVAL 37 DAY),1080.9),</v>
+        <f>"("&amp;B284&amp;","&amp;C284&amp;","&amp;D284&amp;","&amp;E284&amp;"),"</f>
+        <v>(71,15,date_sub(curdate(), INTERVAL 37 DAY),1080.9),</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -12375,17 +12373,17 @@
         <v>71</v>
       </c>
       <c r="C285">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>346</v>
-      </c>
-      <c r="E285" t="s">
-        <v>617</v>
+        <v>347</v>
+      </c>
+      <c r="E285">
+        <v>1121</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" si="4"/>
-        <v>(71,17,date_sub(curdate(), INTERVAL 34 DAY),1137.4),</v>
+        <f>"("&amp;B285&amp;","&amp;C285&amp;","&amp;D285&amp;","&amp;E285&amp;"),"</f>
+        <v>(71,12,date_sub(curdate(), INTERVAL 42 DAY),1121),</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -12396,7 +12394,7 @@
         <v>72</v>
       </c>
       <c r="C286">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D286" t="s">
         <v>345</v>
@@ -12405,8 +12403,8 @@
         <v>618</v>
       </c>
       <c r="F286" t="str">
-        <f t="shared" si="4"/>
-        <v>(72,6,date_sub(curdate(), INTERVAL 36 DAY),47383.6),</v>
+        <f>"("&amp;B286&amp;","&amp;C286&amp;","&amp;D286&amp;","&amp;E286&amp;"),"</f>
+        <v>(72,4,date_sub(curdate(), INTERVAL 36 DAY),47383.6),</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -12426,7 +12424,7 @@
         <v>619</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" si="4"/>
+        <f>"("&amp;B287&amp;","&amp;C287&amp;","&amp;D287&amp;","&amp;E287&amp;"),"</f>
         <v>(72,7,date_sub(curdate(), INTERVAL 38 DAY),36378.2),</v>
       </c>
     </row>
@@ -12438,7 +12436,7 @@
         <v>72</v>
       </c>
       <c r="C288">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D288" t="s">
         <v>349</v>
@@ -12447,8 +12445,8 @@
         <v>620</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" si="4"/>
-        <v>(72,16,date_sub(curdate(), INTERVAL 41 DAY),39434.4),</v>
+        <f>"("&amp;B288&amp;","&amp;C288&amp;","&amp;D288&amp;","&amp;E288&amp;"),"</f>
+        <v>(72,8,date_sub(curdate(), INTERVAL 41 DAY),39434.4),</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -12459,7 +12457,7 @@
         <v>72</v>
       </c>
       <c r="C289">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D289" t="s">
         <v>341</v>
@@ -12468,8 +12466,8 @@
         <v>621</v>
       </c>
       <c r="F289" t="str">
-        <f t="shared" si="4"/>
-        <v>(72,17,date_sub(curdate(), INTERVAL 44 DAY),48000.3),</v>
+        <f>"("&amp;B289&amp;","&amp;C289&amp;","&amp;D289&amp;","&amp;E289&amp;"),"</f>
+        <v>(72,4,date_sub(curdate(), INTERVAL 44 DAY),48000.3),</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -12480,7 +12478,7 @@
         <v>73</v>
       </c>
       <c r="C290">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D290" t="s">
         <v>350</v>
@@ -12489,8 +12487,8 @@
         <v>622</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" si="4"/>
-        <v>(73,10,date_sub(curdate(), INTERVAL 11 DAY),94.5),</v>
+        <f>"("&amp;B290&amp;","&amp;C290&amp;","&amp;D290&amp;","&amp;E290&amp;"),"</f>
+        <v>(73,11,date_sub(curdate(), INTERVAL 11 DAY),94.5),</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -12501,7 +12499,7 @@
         <v>73</v>
       </c>
       <c r="C291">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D291" t="s">
         <v>351</v>
@@ -12510,8 +12508,8 @@
         <v>623</v>
       </c>
       <c r="F291" t="str">
-        <f t="shared" si="4"/>
-        <v>(73,14,date_sub(curdate(), INTERVAL 13 DAY),71.8),</v>
+        <f>"("&amp;B291&amp;","&amp;C291&amp;","&amp;D291&amp;","&amp;E291&amp;"),"</f>
+        <v>(73,12,date_sub(curdate(), INTERVAL 13 DAY),71.8),</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -12522,7 +12520,7 @@
         <v>73</v>
       </c>
       <c r="C292">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D292" t="s">
         <v>352</v>
@@ -12531,8 +12529,8 @@
         <v>74</v>
       </c>
       <c r="F292" t="str">
-        <f t="shared" si="4"/>
-        <v>(73,16,date_sub(curdate(), INTERVAL 18 DAY),74),</v>
+        <f>"("&amp;B292&amp;","&amp;C292&amp;","&amp;D292&amp;","&amp;E292&amp;"),"</f>
+        <v>(73,15,date_sub(curdate(), INTERVAL 18 DAY),74),</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -12552,7 +12550,7 @@
         <v>624</v>
       </c>
       <c r="F293" t="str">
-        <f t="shared" si="4"/>
+        <f>"("&amp;B293&amp;","&amp;C293&amp;","&amp;D293&amp;","&amp;E293&amp;"),"</f>
         <v>(73,17,date_sub(curdate(), INTERVAL 24 DAY),81.1),</v>
       </c>
     </row>
@@ -12564,17 +12562,17 @@
         <v>74</v>
       </c>
       <c r="C294">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E294" t="s">
-        <v>625</v>
+        <v>537</v>
       </c>
       <c r="F294" t="str">
-        <f t="shared" si="4"/>
-        <v>(74,10,date_sub(curdate(), INTERVAL 15 DAY),40.4),</v>
+        <f>"("&amp;B294&amp;","&amp;C294&amp;","&amp;D294&amp;","&amp;E294&amp;"),"</f>
+        <v>(74,11,date_sub(curdate(), INTERVAL 11 DAY),42.2),</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -12585,17 +12583,17 @@
         <v>74</v>
       </c>
       <c r="C295">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D295" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E295" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="F295" t="str">
-        <f t="shared" si="4"/>
-        <v>(74,14,date_sub(curdate(), INTERVAL 11 DAY),42.2),</v>
+        <f>"("&amp;B295&amp;","&amp;C295&amp;","&amp;D295&amp;","&amp;E295&amp;"),"</f>
+        <v>(74,15,date_sub(curdate(), INTERVAL 14 DAY),48.3),</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -12606,17 +12604,17 @@
         <v>74</v>
       </c>
       <c r="C296">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D296" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E296" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F296" t="str">
-        <f t="shared" si="4"/>
-        <v>(74,16,date_sub(curdate(), INTERVAL 24 DAY),39.1),</v>
+        <f>"("&amp;B296&amp;","&amp;C296&amp;","&amp;D296&amp;","&amp;E296&amp;"),"</f>
+        <v>(74,18,date_sub(curdate(), INTERVAL 15 DAY),40.4),</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -12627,17 +12625,17 @@
         <v>74</v>
       </c>
       <c r="C297">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E297" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F297" t="str">
-        <f t="shared" si="4"/>
-        <v>(74,17,date_sub(curdate(), INTERVAL 14 DAY),48.3),</v>
+        <f>"("&amp;B297&amp;","&amp;C297&amp;","&amp;D297&amp;","&amp;E297&amp;"),"</f>
+        <v>(74,12,date_sub(curdate(), INTERVAL 24 DAY),39.1),</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -12648,17 +12646,17 @@
         <v>75</v>
       </c>
       <c r="C298">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D298" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E298" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F298" t="str">
-        <f t="shared" si="4"/>
-        <v>(75,10,date_sub(curdate(), INTERVAL 22 DAY),1407.2),</v>
+        <f>"("&amp;B298&amp;","&amp;C298&amp;","&amp;D298&amp;","&amp;E298&amp;"),"</f>
+        <v>(75,18,date_sub(curdate(), INTERVAL 15 DAY),1692.7),</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -12669,17 +12667,17 @@
         <v>75</v>
       </c>
       <c r="C299">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D299" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E299" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F299" t="str">
-        <f t="shared" si="4"/>
-        <v>(75,14,date_sub(curdate(), INTERVAL 15 DAY),1692.7),</v>
+        <f>"("&amp;B299&amp;","&amp;C299&amp;","&amp;D299&amp;","&amp;E299&amp;"),"</f>
+        <v>(75,11,date_sub(curdate(), INTERVAL 19 DAY),1666.5),</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -12690,17 +12688,17 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D300" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E300" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F300" t="str">
-        <f t="shared" si="4"/>
-        <v>(75,16,date_sub(curdate(), INTERVAL 19 DAY),1666.5),</v>
+        <f>"("&amp;B300&amp;","&amp;C300&amp;","&amp;D300&amp;","&amp;E300&amp;"),"</f>
+        <v>(75,17,date_sub(curdate(), INTERVAL 22 DAY),1407.2),</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -12711,7 +12709,7 @@
         <v>75</v>
       </c>
       <c r="C301">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D301" t="s">
         <v>356</v>
@@ -12720,8 +12718,8 @@
         <v>1627</v>
       </c>
       <c r="F301" t="str">
-        <f t="shared" si="4"/>
-        <v>(75,17,date_sub(curdate(), INTERVAL 22 DAY),1627),</v>
+        <f>"("&amp;B301&amp;","&amp;C301&amp;","&amp;D301&amp;","&amp;E301&amp;"),"</f>
+        <v>(75,12,date_sub(curdate(), INTERVAL 22 DAY),1627),</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -12732,7 +12730,7 @@
         <v>76</v>
       </c>
       <c r="C302">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D302" t="s">
         <v>355</v>
@@ -12741,8 +12739,8 @@
         <v>631</v>
       </c>
       <c r="F302" t="str">
-        <f t="shared" si="4"/>
-        <v>(76,15,date_sub(curdate(), INTERVAL 14 DAY),187.3),</v>
+        <f>"("&amp;B302&amp;","&amp;C302&amp;","&amp;D302&amp;","&amp;E302&amp;"),"</f>
+        <v>(76,16,date_sub(curdate(), INTERVAL 14 DAY),187.3),</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -12753,17 +12751,17 @@
         <v>76</v>
       </c>
       <c r="C303">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D303" t="s">
-        <v>358</v>
-      </c>
-      <c r="E303">
-        <v>169</v>
+        <v>355</v>
+      </c>
+      <c r="E303" t="s">
+        <v>632</v>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="4"/>
-        <v>(76,18,date_sub(curdate(), INTERVAL 20 DAY),169),</v>
+        <f>"("&amp;B303&amp;","&amp;C303&amp;","&amp;D303&amp;","&amp;E303&amp;"),"</f>
+        <v>(76,11,date_sub(curdate(), INTERVAL 14 DAY),148.5),</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -12774,17 +12772,17 @@
         <v>76</v>
       </c>
       <c r="C304">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D304" t="s">
         <v>355</v>
       </c>
-      <c r="E304" t="s">
-        <v>632</v>
+      <c r="E304">
+        <v>194</v>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="4"/>
-        <v>(76,14,date_sub(curdate(), INTERVAL 14 DAY),148.5),</v>
+        <f>"("&amp;B304&amp;","&amp;C304&amp;","&amp;D304&amp;","&amp;E304&amp;"),"</f>
+        <v>(76,16,date_sub(curdate(), INTERVAL 14 DAY),194),</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -12795,17 +12793,17 @@
         <v>76</v>
       </c>
       <c r="C305">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D305" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E305">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F305" t="str">
-        <f t="shared" si="4"/>
-        <v>(76,15,date_sub(curdate(), INTERVAL 14 DAY),194),</v>
+        <f>"("&amp;B305&amp;","&amp;C305&amp;","&amp;D305&amp;","&amp;E305&amp;"),"</f>
+        <v>(76,19,date_sub(curdate(), INTERVAL 20 DAY),169),</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -12816,17 +12814,17 @@
         <v>77</v>
       </c>
       <c r="C306">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D306" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E306" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F306" t="str">
-        <f t="shared" si="4"/>
-        <v>(77,10,date_sub(curdate(), INTERVAL 4 DAY),98.7),</v>
+        <f>"("&amp;B306&amp;","&amp;C306&amp;","&amp;D306&amp;","&amp;E306&amp;"),"</f>
+        <v>(77,11,date_sub(curdate(), INTERVAL -1 DAY),74.4),</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -12837,7 +12835,7 @@
         <v>77</v>
       </c>
       <c r="C307">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D307" t="s">
         <v>360</v>
@@ -12846,8 +12844,8 @@
         <v>634</v>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="4"/>
-        <v>(77,14,date_sub(curdate(), INTERVAL 3 DAY),88.5),</v>
+        <f>"("&amp;B307&amp;","&amp;C307&amp;","&amp;D307&amp;","&amp;E307&amp;"),"</f>
+        <v>(77,17,date_sub(curdate(), INTERVAL 3 DAY),88.5),</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -12858,17 +12856,17 @@
         <v>77</v>
       </c>
       <c r="C308">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D308" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E308" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="4"/>
-        <v>(77,16,date_sub(curdate(), INTERVAL 9 DAY),77.6),</v>
+        <f>"("&amp;B308&amp;","&amp;C308&amp;","&amp;D308&amp;","&amp;E308&amp;"),"</f>
+        <v>(77,15,date_sub(curdate(), INTERVAL 4 DAY),98.7),</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -12879,17 +12877,17 @@
         <v>77</v>
       </c>
       <c r="C309">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D309" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E309" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="4"/>
-        <v>(77,17,date_sub(curdate(), INTERVAL -1 DAY),74.4),</v>
+        <f>"("&amp;B309&amp;","&amp;C309&amp;","&amp;D309&amp;","&amp;E309&amp;"),"</f>
+        <v>(77,18,date_sub(curdate(), INTERVAL 9 DAY),77.6),</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -12900,17 +12898,17 @@
         <v>78</v>
       </c>
       <c r="C310">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D310" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E310" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="4"/>
-        <v>(78,6,date_sub(curdate(), INTERVAL 2 DAY),4826.4),</v>
+        <f>"("&amp;B310&amp;","&amp;C310&amp;","&amp;D310&amp;","&amp;E310&amp;"),"</f>
+        <v>(78,8,date_sub(curdate(), INTERVAL 10 DAY),4020.6),</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -12921,17 +12919,17 @@
         <v>78</v>
       </c>
       <c r="C311">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E311" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F311" t="str">
-        <f t="shared" si="4"/>
-        <v>(78,7,date_sub(curdate(), INTERVAL 10 DAY),4020.6),</v>
+        <f>"("&amp;B311&amp;","&amp;C311&amp;","&amp;D311&amp;","&amp;E311&amp;"),"</f>
+        <v>(78,4,date_sub(curdate(), INTERVAL 11 DAY),4196.3),</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -12942,17 +12940,17 @@
         <v>78</v>
       </c>
       <c r="C312">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D312" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E312" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F312" t="str">
-        <f t="shared" si="4"/>
-        <v>(78,16,date_sub(curdate(), INTERVAL 11 DAY),4196.3),</v>
+        <f>"("&amp;B312&amp;","&amp;C312&amp;","&amp;D312&amp;","&amp;E312&amp;"),"</f>
+        <v>(78,7,date_sub(curdate(), INTERVAL 2 DAY),4826.4),</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -12963,7 +12961,7 @@
         <v>78</v>
       </c>
       <c r="C313">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D313" t="s">
         <v>360</v>
@@ -12972,8 +12970,8 @@
         <v>640</v>
       </c>
       <c r="F313" t="str">
-        <f t="shared" si="4"/>
-        <v>(78,17,date_sub(curdate(), INTERVAL 3 DAY),4640.7),</v>
+        <f>"("&amp;B313&amp;","&amp;C313&amp;","&amp;D313&amp;","&amp;E313&amp;"),"</f>
+        <v>(78,7,date_sub(curdate(), INTERVAL 3 DAY),4640.7),</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -12984,17 +12982,17 @@
         <v>79</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D314" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E314" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F314" t="str">
-        <f t="shared" si="4"/>
-        <v>(79,3,date_sub(curdate(), INTERVAL 2 DAY),2821.4),</v>
+        <f>"("&amp;B314&amp;","&amp;C314&amp;","&amp;D314&amp;","&amp;E314&amp;"),"</f>
+        <v>(79,8,date_sub(curdate(), INTERVAL 0 DAY),2747.2),</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -13005,7 +13003,7 @@
         <v>79</v>
       </c>
       <c r="C315">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D315" t="s">
         <v>364</v>
@@ -13014,8 +13012,8 @@
         <v>642</v>
       </c>
       <c r="F315" t="str">
-        <f t="shared" si="4"/>
-        <v>(79,6,date_sub(curdate(), INTERVAL 10 DAY),2659.5),</v>
+        <f>"("&amp;B315&amp;","&amp;C315&amp;","&amp;D315&amp;","&amp;E315&amp;"),"</f>
+        <v>(79,4,date_sub(curdate(), INTERVAL 10 DAY),2659.5),</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -13026,17 +13024,17 @@
         <v>79</v>
       </c>
       <c r="C316">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D316" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E316" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" si="4"/>
-        <v>(79,7,date_sub(curdate(), INTERVAL 8 DAY),2893.4),</v>
+        <f>"("&amp;B316&amp;","&amp;C316&amp;","&amp;D316&amp;","&amp;E316&amp;"),"</f>
+        <v>(79,8,date_sub(curdate(), INTERVAL 2 DAY),2821.4),</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -13047,17 +13045,17 @@
         <v>79</v>
       </c>
       <c r="C317">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D317" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E317" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="4"/>
-        <v>(79,16,date_sub(curdate(), INTERVAL 0 DAY),2747.2),</v>
+        <f>"("&amp;B317&amp;","&amp;C317&amp;","&amp;D317&amp;","&amp;E317&amp;"),"</f>
+        <v>(79,7,date_sub(curdate(), INTERVAL 8 DAY),2893.4),</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -13068,17 +13066,17 @@
         <v>80</v>
       </c>
       <c r="C318">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D318" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E318" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="4"/>
-        <v>(80,14,date_sub(curdate(), INTERVAL 7 DAY),283.6),</v>
+        <f>"("&amp;B318&amp;","&amp;C318&amp;","&amp;D318&amp;","&amp;E318&amp;"),"</f>
+        <v>(80,15,date_sub(curdate(), INTERVAL 10 DAY),232.2),</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -13089,17 +13087,17 @@
         <v>80</v>
       </c>
       <c r="C319">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D319" t="s">
         <v>367</v>
       </c>
       <c r="E319" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F319" t="str">
-        <f t="shared" si="4"/>
-        <v>(80,16,date_sub(curdate(), INTERVAL 7 DAY),222.7),</v>
+        <f>"("&amp;B319&amp;","&amp;C319&amp;","&amp;D319&amp;","&amp;E319&amp;"),"</f>
+        <v>(80,11,date_sub(curdate(), INTERVAL 7 DAY),283.6),</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -13110,17 +13108,17 @@
         <v>80</v>
       </c>
       <c r="C320">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D320" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E320" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F320" t="str">
-        <f t="shared" si="4"/>
-        <v>(80,17,date_sub(curdate(), INTERVAL 10 DAY),232.2),</v>
+        <f>"("&amp;B320&amp;","&amp;C320&amp;","&amp;D320&amp;","&amp;E320&amp;"),"</f>
+        <v>(80,12,date_sub(curdate(), INTERVAL 7 DAY),222.7),</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -13131,7 +13129,7 @@
         <v>80</v>
       </c>
       <c r="C321">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D321" t="s">
         <v>361</v>
@@ -13140,8 +13138,8 @@
         <v>648</v>
       </c>
       <c r="F321" t="str">
-        <f t="shared" si="4"/>
-        <v>(80,14,date_sub(curdate(), INTERVAL 9 DAY),269.9),</v>
+        <f>"("&amp;B321&amp;","&amp;C321&amp;","&amp;D321&amp;","&amp;E321&amp;"),"</f>
+        <v>(80,17,date_sub(curdate(), INTERVAL 9 DAY),269.9),</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -13152,17 +13150,17 @@
         <v>81</v>
       </c>
       <c r="C322">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D322" t="s">
-        <v>363</v>
-      </c>
-      <c r="E322">
-        <v>18</v>
+        <v>368</v>
+      </c>
+      <c r="E322" t="s">
+        <v>649</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="4"/>
-        <v>(81,8,date_sub(curdate(), INTERVAL 2 DAY),18),</v>
+        <f>"("&amp;B322&amp;","&amp;C322&amp;","&amp;D322&amp;","&amp;E322&amp;"),"</f>
+        <v>(81,10,date_sub(curdate(), INTERVAL 1 DAY),25.1),</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -13176,14 +13174,14 @@
         <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>368</v>
-      </c>
-      <c r="E323" t="s">
-        <v>649</v>
+        <v>363</v>
+      </c>
+      <c r="E323">
+        <v>18</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" ref="F323:F355" si="5">"("&amp;B323&amp;","&amp;C323&amp;","&amp;D323&amp;","&amp;E323&amp;"),"</f>
-        <v>(81,9,date_sub(curdate(), INTERVAL 1 DAY),25.1),</v>
+        <f>"("&amp;B323&amp;","&amp;C323&amp;","&amp;D323&amp;","&amp;E323&amp;"),"</f>
+        <v>(81,9,date_sub(curdate(), INTERVAL 2 DAY),18),</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -13194,7 +13192,7 @@
         <v>82</v>
       </c>
       <c r="C324">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D324" t="s">
         <v>366</v>
@@ -13203,8 +13201,8 @@
         <v>650</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" si="5"/>
-        <v>(82,10,date_sub(curdate(), INTERVAL 0 DAY),82.2),</v>
+        <f>"("&amp;B324&amp;","&amp;C324&amp;","&amp;D324&amp;","&amp;E324&amp;"),"</f>
+        <v>(82,12,date_sub(curdate(), INTERVAL 0 DAY),82.2),</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -13215,17 +13213,17 @@
         <v>82</v>
       </c>
       <c r="C325">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D325" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E325" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F325" t="str">
-        <f t="shared" si="5"/>
-        <v>(82,14,date_sub(curdate(), INTERVAL 4 DAY),71.5),</v>
+        <f>"("&amp;B325&amp;","&amp;C325&amp;","&amp;D325&amp;","&amp;E325&amp;"),"</f>
+        <v>(82,18,date_sub(curdate(), INTERVAL 1 DAY),79.3),</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -13236,7 +13234,7 @@
         <v>82</v>
       </c>
       <c r="C326">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D326" t="s">
         <v>363</v>
@@ -13245,8 +13243,8 @@
         <v>652</v>
       </c>
       <c r="F326" t="str">
-        <f t="shared" si="5"/>
-        <v>(82,16,date_sub(curdate(), INTERVAL 2 DAY),94.3),</v>
+        <f>"("&amp;B326&amp;","&amp;C326&amp;","&amp;D326&amp;","&amp;E326&amp;"),"</f>
+        <v>(82,17,date_sub(curdate(), INTERVAL 2 DAY),94.3),</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -13257,17 +13255,17 @@
         <v>82</v>
       </c>
       <c r="C327">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D327" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E327" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F327" t="str">
-        <f t="shared" si="5"/>
-        <v>(82,17,date_sub(curdate(), INTERVAL 1 DAY),79.3),</v>
+        <f>"("&amp;B327&amp;","&amp;C327&amp;","&amp;D327&amp;","&amp;E327&amp;"),"</f>
+        <v>(82,15,date_sub(curdate(), INTERVAL 4 DAY),71.5),</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -13278,17 +13276,17 @@
         <v>83</v>
       </c>
       <c r="C328">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D328" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E328" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F328" t="str">
-        <f t="shared" si="5"/>
-        <v>(83,16,date_sub(curdate(), INTERVAL 1 DAY),186.9),</v>
+        <f>"("&amp;B328&amp;","&amp;C328&amp;","&amp;D328&amp;","&amp;E328&amp;"),"</f>
+        <v>(83,11,date_sub(curdate(), INTERVAL 0 DAY),163.1),</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -13299,17 +13297,17 @@
         <v>83</v>
       </c>
       <c r="C329">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D329" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E329" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F329" t="str">
-        <f t="shared" si="5"/>
-        <v>(83,17,date_sub(curdate(), INTERVAL 0 DAY),163.1),</v>
+        <f>"("&amp;B329&amp;","&amp;C329&amp;","&amp;D329&amp;","&amp;E329&amp;"),"</f>
+        <v>(83,18,date_sub(curdate(), INTERVAL 1 DAY),186.9),</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -13320,7 +13318,7 @@
         <v>83</v>
       </c>
       <c r="C330">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D330" t="s">
         <v>368</v>
@@ -13329,8 +13327,8 @@
         <v>656</v>
       </c>
       <c r="F330" t="str">
-        <f t="shared" si="5"/>
-        <v>(83,14,date_sub(curdate(), INTERVAL 1 DAY),155.9),</v>
+        <f>"("&amp;B330&amp;","&amp;C330&amp;","&amp;D330&amp;","&amp;E330&amp;"),"</f>
+        <v>(83,12,date_sub(curdate(), INTERVAL 1 DAY),155.9),</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -13341,7 +13339,7 @@
         <v>83</v>
       </c>
       <c r="C331">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D331" t="s">
         <v>363</v>
@@ -13350,8 +13348,8 @@
         <v>657</v>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="5"/>
-        <v>(83,16,date_sub(curdate(), INTERVAL 2 DAY),195.6),</v>
+        <f>"("&amp;B331&amp;","&amp;C331&amp;","&amp;D331&amp;","&amp;E331&amp;"),"</f>
+        <v>(83,15,date_sub(curdate(), INTERVAL 2 DAY),195.6),</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -13362,7 +13360,7 @@
         <v>84</v>
       </c>
       <c r="C332">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D332" t="s">
         <v>366</v>
@@ -13371,8 +13369,8 @@
         <v>658</v>
       </c>
       <c r="F332" t="str">
-        <f t="shared" si="5"/>
-        <v>(84,12,date_sub(curdate(), INTERVAL 0 DAY),48423.8),</v>
+        <f>"("&amp;B332&amp;","&amp;C332&amp;","&amp;D332&amp;","&amp;E332&amp;"),"</f>
+        <v>(84,13,date_sub(curdate(), INTERVAL 0 DAY),48423.8),</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -13383,17 +13381,17 @@
         <v>84</v>
       </c>
       <c r="C333">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F333" t="str">
-        <f t="shared" si="5"/>
-        <v>(84,13,date_sub(curdate(), INTERVAL 1 DAY),49361.5),</v>
+        <f>"("&amp;B333&amp;","&amp;C333&amp;","&amp;D333&amp;","&amp;E333&amp;"),"</f>
+        <v>(84,9,date_sub(curdate(), INTERVAL 0 DAY),43430.2),</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -13404,17 +13402,17 @@
         <v>84</v>
       </c>
       <c r="C334">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D334" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E334" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F334" t="str">
-        <f t="shared" si="5"/>
-        <v>(84,8,date_sub(curdate(), INTERVAL 0 DAY),43430.2),</v>
+        <f>"("&amp;B334&amp;","&amp;C334&amp;","&amp;D334&amp;","&amp;E334&amp;"),"</f>
+        <v>(84,14,date_sub(curdate(), INTERVAL 1 DAY),49361.5),</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -13425,7 +13423,7 @@
         <v>84</v>
       </c>
       <c r="C335">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
         <v>359</v>
@@ -13434,8 +13432,8 @@
         <v>661</v>
       </c>
       <c r="F335" t="str">
-        <f t="shared" si="5"/>
-        <v>(84,9,date_sub(curdate(), INTERVAL 4 DAY),48357.6),</v>
+        <f>"("&amp;B335&amp;","&amp;C335&amp;","&amp;D335&amp;","&amp;E335&amp;"),"</f>
+        <v>(84,10,date_sub(curdate(), INTERVAL 4 DAY),48357.6),</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -13446,7 +13444,7 @@
         <v>85</v>
       </c>
       <c r="C336">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D336" t="s">
         <v>366</v>
@@ -13455,8 +13453,8 @@
         <v>662</v>
       </c>
       <c r="F336" t="str">
-        <f t="shared" si="5"/>
-        <v>(85,11,date_sub(curdate(), INTERVAL 0 DAY),93.8),</v>
+        <f>"("&amp;B336&amp;","&amp;C336&amp;","&amp;D336&amp;","&amp;E336&amp;"),"</f>
+        <v>(85,17,date_sub(curdate(), INTERVAL 0 DAY),93.8),</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -13467,7 +13465,7 @@
         <v>85</v>
       </c>
       <c r="C337">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D337" t="s">
         <v>366</v>
@@ -13476,8 +13474,8 @@
         <v>663</v>
       </c>
       <c r="F337" t="str">
-        <f t="shared" si="5"/>
-        <v>(85,16,date_sub(curdate(), INTERVAL 0 DAY),106.5),</v>
+        <f>"("&amp;B337&amp;","&amp;C337&amp;","&amp;D337&amp;","&amp;E337&amp;"),"</f>
+        <v>(85,18,date_sub(curdate(), INTERVAL 0 DAY),106.5),</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -13488,7 +13486,7 @@
         <v>86</v>
       </c>
       <c r="C338">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D338" t="s">
         <v>368</v>
@@ -13497,8 +13495,8 @@
         <v>664</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" si="5"/>
-        <v>(86,18,date_sub(curdate(), INTERVAL 1 DAY),165.9),</v>
+        <f>"("&amp;B338&amp;","&amp;C338&amp;","&amp;D338&amp;","&amp;E338&amp;"),"</f>
+        <v>(86,19,date_sub(curdate(), INTERVAL 1 DAY),165.9),</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -13509,7 +13507,7 @@
         <v>86</v>
       </c>
       <c r="C339">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D339" t="s">
         <v>363</v>
@@ -13518,8 +13516,8 @@
         <v>184</v>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="5"/>
-        <v>(86,14,date_sub(curdate(), INTERVAL 2 DAY),184),</v>
+        <f>"("&amp;B339&amp;","&amp;C339&amp;","&amp;D339&amp;","&amp;E339&amp;"),"</f>
+        <v>(86,11,date_sub(curdate(), INTERVAL 2 DAY),184),</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -13530,7 +13528,7 @@
         <v>86</v>
       </c>
       <c r="C340">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D340" t="s">
         <v>360</v>
@@ -13539,8 +13537,8 @@
         <v>665</v>
       </c>
       <c r="F340" t="str">
-        <f t="shared" si="5"/>
-        <v>(86,15,date_sub(curdate(), INTERVAL 3 DAY),172.9),</v>
+        <f>"("&amp;B340&amp;","&amp;C340&amp;","&amp;D340&amp;","&amp;E340&amp;"),"</f>
+        <v>(86,16,date_sub(curdate(), INTERVAL 3 DAY),172.9),</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -13551,7 +13549,7 @@
         <v>86</v>
       </c>
       <c r="C341">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D341" t="s">
         <v>359</v>
@@ -13560,8 +13558,8 @@
         <v>666</v>
       </c>
       <c r="F341" t="str">
-        <f t="shared" si="5"/>
-        <v>(86,18,date_sub(curdate(), INTERVAL 4 DAY),198.7),</v>
+        <f>"("&amp;B341&amp;","&amp;C341&amp;","&amp;D341&amp;","&amp;E341&amp;"),"</f>
+        <v>(86,19,date_sub(curdate(), INTERVAL 4 DAY),198.7),</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -13572,17 +13570,17 @@
         <v>87</v>
       </c>
       <c r="C342">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D342" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F342" t="str">
-        <f t="shared" si="5"/>
-        <v>(87,4,date_sub(curdate(), INTERVAL 1 DAY),3.7),</v>
+        <f>"("&amp;B342&amp;","&amp;C342&amp;","&amp;D342&amp;","&amp;E342&amp;"),"</f>
+        <v>(87,11,date_sub(curdate(), INTERVAL 0 DAY),4.3),</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -13596,14 +13594,14 @@
         <v>5</v>
       </c>
       <c r="D343" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E343" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F343" t="str">
-        <f t="shared" si="5"/>
-        <v>(87,5,date_sub(curdate(), INTERVAL 2 DAY),3.3),</v>
+        <f>"("&amp;B343&amp;","&amp;C343&amp;","&amp;D343&amp;","&amp;E343&amp;"),"</f>
+        <v>(87,5,date_sub(curdate(), INTERVAL 1 DAY),3.7),</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -13614,17 +13612,17 @@
         <v>87</v>
       </c>
       <c r="C344">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D344" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F344" t="str">
-        <f t="shared" si="5"/>
-        <v>(87,17,date_sub(curdate(), INTERVAL 0 DAY),4.3),</v>
+        <f>"("&amp;B344&amp;","&amp;C344&amp;","&amp;D344&amp;","&amp;E344&amp;"),"</f>
+        <v>(87,5,date_sub(curdate(), INTERVAL 1 DAY),3.4),</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -13635,17 +13633,17 @@
         <v>87</v>
       </c>
       <c r="C345">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D345" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E345" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F345" t="str">
-        <f t="shared" si="5"/>
-        <v>(87,4,date_sub(curdate(), INTERVAL 1 DAY),3.4),</v>
+        <f>"("&amp;B345&amp;","&amp;C345&amp;","&amp;D345&amp;","&amp;E345&amp;"),"</f>
+        <v>(87,6,date_sub(curdate(), INTERVAL 2 DAY),3.3),</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -13656,17 +13654,17 @@
         <v>88</v>
       </c>
       <c r="C346">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D346" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>592</v>
       </c>
       <c r="F346" t="str">
-        <f t="shared" si="5"/>
-        <v>(88,12,date_sub(curdate(), INTERVAL 2 DAY),15.7),</v>
+        <f>"("&amp;B346&amp;","&amp;C346&amp;","&amp;D346&amp;","&amp;E346&amp;"),"</f>
+        <v>(88,10,date_sub(curdate(), INTERVAL 0 DAY),17.1),</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -13677,17 +13675,17 @@
         <v>88</v>
       </c>
       <c r="C347">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D347" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E347" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F347" t="str">
-        <f t="shared" si="5"/>
-        <v>(88,13,date_sub(curdate(), INTERVAL 3 DAY),16.6),</v>
+        <f>"("&amp;B347&amp;","&amp;C347&amp;","&amp;D347&amp;","&amp;E347&amp;"),"</f>
+        <v>(88,9,date_sub(curdate(), INTERVAL 1 DAY),19.7),</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -13698,17 +13696,17 @@
         <v>88</v>
       </c>
       <c r="C348">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D348" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F348" t="str">
-        <f t="shared" si="5"/>
-        <v>(88,8,date_sub(curdate(), INTERVAL 1 DAY),19.7),</v>
+        <f>"("&amp;B348&amp;","&amp;C348&amp;","&amp;D348&amp;","&amp;E348&amp;"),"</f>
+        <v>(88,13,date_sub(curdate(), INTERVAL 2 DAY),15.7),</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -13719,17 +13717,17 @@
         <v>88</v>
       </c>
       <c r="C349">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D349" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E349" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="F349" t="str">
-        <f t="shared" si="5"/>
-        <v>(88,9,date_sub(curdate(), INTERVAL 0 DAY),17.1),</v>
+        <f>"("&amp;B349&amp;","&amp;C349&amp;","&amp;D349&amp;","&amp;E349&amp;"),"</f>
+        <v>(88,14,date_sub(curdate(), INTERVAL 3 DAY),16.6),</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -13740,17 +13738,17 @@
         <v>89</v>
       </c>
       <c r="C350">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D350" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E350" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F350" t="str">
-        <f t="shared" si="5"/>
-        <v>(89,11,date_sub(curdate(), INTERVAL 1 DAY),834.5),</v>
+        <f>"("&amp;B350&amp;","&amp;C350&amp;","&amp;D350&amp;","&amp;E350&amp;"),"</f>
+        <v>(89,12,date_sub(curdate(), INTERVAL 0 DAY),807.5),</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -13761,17 +13759,17 @@
         <v>89</v>
       </c>
       <c r="C351">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D351" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F351" t="str">
-        <f t="shared" si="5"/>
-        <v>(89,16,date_sub(curdate(), INTERVAL 0 DAY),807.5),</v>
+        <f>"("&amp;B351&amp;","&amp;C351&amp;","&amp;D351&amp;","&amp;E351&amp;"),"</f>
+        <v>(89,11,date_sub(curdate(), INTERVAL 1 DAY),834.5),</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -13785,14 +13783,14 @@
         <v>17</v>
       </c>
       <c r="D352" t="s">
-        <v>369</v>
-      </c>
-      <c r="E352" t="s">
-        <v>676</v>
+        <v>359</v>
+      </c>
+      <c r="E352">
+        <v>992</v>
       </c>
       <c r="F352" t="str">
-        <f t="shared" si="5"/>
-        <v>(89,17,date_sub(curdate(), INTERVAL 5 DAY),823.2),</v>
+        <f>"("&amp;B352&amp;","&amp;C352&amp;","&amp;D352&amp;","&amp;E352&amp;"),"</f>
+        <v>(89,17,date_sub(curdate(), INTERVAL 4 DAY),992),</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -13803,17 +13801,17 @@
         <v>89</v>
       </c>
       <c r="C353">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D353" t="s">
-        <v>359</v>
-      </c>
-      <c r="E353">
-        <v>992</v>
+        <v>369</v>
+      </c>
+      <c r="E353" t="s">
+        <v>676</v>
       </c>
       <c r="F353" t="str">
-        <f t="shared" si="5"/>
-        <v>(89,11,date_sub(curdate(), INTERVAL 4 DAY),992),</v>
+        <f>"("&amp;B353&amp;","&amp;C353&amp;","&amp;D353&amp;","&amp;E353&amp;"),"</f>
+        <v>(89,15,date_sub(curdate(), INTERVAL 5 DAY),823.2),</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -13824,7 +13822,7 @@
         <v>90</v>
       </c>
       <c r="C354">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D354" t="s">
         <v>368</v>
@@ -13833,8 +13831,8 @@
         <v>677</v>
       </c>
       <c r="F354" t="str">
-        <f t="shared" si="5"/>
-        <v>(90,12,date_sub(curdate(), INTERVAL 1 DAY),23.2),</v>
+        <f>"("&amp;B354&amp;","&amp;C354&amp;","&amp;D354&amp;","&amp;E354&amp;"),"</f>
+        <v>(90,13,date_sub(curdate(), INTERVAL 1 DAY),23.2),</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -13845,7 +13843,7 @@
         <v>90</v>
       </c>
       <c r="C355">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D355" t="s">
         <v>363</v>
@@ -13854,14 +13852,28 @@
         <v>20</v>
       </c>
       <c r="F355" t="str">
-        <f t="shared" si="5"/>
-        <v>(90,13,date_sub(curdate(), INTERVAL 2 DAY),20),</v>
+        <f>"("&amp;B355&amp;","&amp;C355&amp;","&amp;D355&amp;","&amp;E355&amp;"),"</f>
+        <v>(90,14,date_sub(curdate(), INTERVAL 2 DAY),20),</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D355">
-    <sortCondition ref="A1:A355"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F355">
+    <sortCondition ref="B1:B355"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B139B10-3EE2-44E1-9FCD-DD3991E50E1D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>